--- a/REGULAR/CCT/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/CCT/VELUZ, DORMILUNA.xlsx
@@ -2082,10 +2082,10 @@
   </sheetPr>
   <dimension ref="A2:K455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3645" topLeftCell="A404" activePane="bottomLeft"/>
-      <selection activeCell="W9" sqref="W9:W14"/>
-      <selection pane="bottomLeft" activeCell="H416" sqref="H416"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3645" topLeftCell="A407" activePane="bottomLeft"/>
+      <selection activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="K416" sqref="K416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2246,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-3.1589999999999918</v>
+        <v>-1.9089999999999918</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2256,7 +2256,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>67</v>
+        <v>68.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11621,20 +11621,24 @@
       <c r="B416" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C416" s="13"/>
+      <c r="C416" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D416" s="39"/>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G416" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H416" s="39">
         <v>1</v>
       </c>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="20"/>
+      <c r="K416" s="49">
+        <v>45287</v>
+      </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="48" t="s">
@@ -12443,7 +12447,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>63.841000000000008</v>
+        <v>66.341000000000008</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CCT/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/CCT/VELUZ, DORMILUNA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="343">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1044,6 +1044,24 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>11/10,13/2023</t>
+  </si>
+  <si>
+    <t>10/2/2023 (9)</t>
+  </si>
+  <si>
+    <t>UT(0-3-40)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>3/9,10,13/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-4)</t>
   </si>
 </sst>
 </file>
@@ -1750,8 +1768,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K455" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K455"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K461" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K461"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2080,12 +2098,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K455"/>
+  <dimension ref="A2:K461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3645" topLeftCell="A407" activePane="bottomLeft"/>
+      <pane ySplit="3645" topLeftCell="A398" activePane="bottomLeft"/>
       <selection activeCell="G13" sqref="G13"/>
-      <selection pane="bottomLeft" activeCell="K416" sqref="K416"/>
+      <selection pane="bottomLeft" activeCell="K400" sqref="K400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2264,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-1.9089999999999918</v>
+        <v>-9.9329999999999927</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -11269,93 +11287,83 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="40">
-        <f>EDATE(A401,1)</f>
-        <v>44986</v>
-      </c>
+      <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C402" s="13">
-        <v>1.25</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C402" s="13"/>
       <c r="D402" s="39">
-        <v>4</v>
+        <v>5.8000000000000017E-2</v>
       </c>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G402" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H402" s="39"/>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="K402" s="20"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <f t="shared" ref="A403:A422" si="3">EDATE(A402,1)</f>
-        <v>45017</v>
+        <f>EDATE(A401,1)</f>
+        <v>44986</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C403" s="13">
         <v>1.25</v>
       </c>
-      <c r="D403" s="39"/>
+      <c r="D403" s="39">
+        <v>4</v>
+      </c>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
       <c r="G403" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H403" s="39">
-        <v>2</v>
-      </c>
+      <c r="H403" s="39"/>
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
       <c r="K403" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="40">
-        <f t="shared" si="3"/>
-        <v>45047</v>
-      </c>
+      <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C404" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D404" s="39"/>
+        <v>325</v>
+      </c>
+      <c r="C404" s="13"/>
+      <c r="D404" s="39">
+        <v>3</v>
+      </c>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H404" s="39">
-        <v>1</v>
-      </c>
+      <c r="G404" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H404" s="39"/>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="49">
-        <v>45058</v>
+      <c r="K404" s="20" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="C405" s="13"/>
-      <c r="D405" s="39"/>
+      <c r="D405" s="39">
+        <v>0.50800000000000001</v>
+      </c>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
       <c r="G405" s="13" t="str">
@@ -11365,196 +11373,192 @@
       <c r="H405" s="39"/>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="49" t="s">
-        <v>318</v>
-      </c>
+      <c r="K405" s="20"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40"/>
+      <c r="A406" s="40">
+        <f>EDATE(A403,1)</f>
+        <v>45017</v>
+      </c>
       <c r="B406" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C406" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C406" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D406" s="39"/>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G406" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H406" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="49">
-        <v>45072</v>
+      <c r="K406" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="40">
-        <f>EDATE(A404,1)</f>
-        <v>45078</v>
-      </c>
+      <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C407" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D407" s="39"/>
+        <v>340</v>
+      </c>
+      <c r="C407" s="13"/>
+      <c r="D407" s="39">
+        <v>1</v>
+      </c>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G407" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H407" s="39"/>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
       <c r="K407" s="49">
-        <v>45082</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="40"/>
+      <c r="A408" s="40">
+        <f>EDATE(A406,1)</f>
+        <v>45047</v>
+      </c>
       <c r="B408" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C408" s="13"/>
-      <c r="D408" s="39">
-        <v>5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C408" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D408" s="39"/>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G408" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H408" s="39">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
-      <c r="K408" s="49" t="s">
-        <v>320</v>
+      <c r="K408" s="49">
+        <v>45058</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="40">
-        <f>EDATE(A407,1)</f>
-        <v>45108</v>
-      </c>
+      <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C409" s="13">
-        <v>1.25</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C409" s="13"/>
       <c r="D409" s="39"/>
       <c r="E409" s="9"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H409" s="39">
-        <v>1</v>
-      </c>
+      <c r="G409" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H409" s="39"/>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
-      <c r="K409" s="49">
-        <v>45124</v>
+      <c r="K409" s="49" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="40">
-        <f t="shared" si="3"/>
-        <v>45139</v>
-      </c>
+      <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C410" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D410" s="39">
-        <v>4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C410" s="13"/>
+      <c r="D410" s="39"/>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H410" s="39"/>
+      <c r="G410" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H410" s="39">
+        <v>1</v>
+      </c>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
-      <c r="K410" s="20" t="s">
-        <v>322</v>
+      <c r="K410" s="49">
+        <v>45072</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="40"/>
+      <c r="A411" s="40">
+        <f>EDATE(A408,1)</f>
+        <v>45078</v>
+      </c>
       <c r="B411" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C411" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C411" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D411" s="39"/>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H411" s="39">
-        <v>1</v>
-      </c>
+      <c r="G411" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H411" s="39"/>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
       <c r="K411" s="49">
-        <v>45139</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="40">
-        <f>EDATE(A410,1)</f>
-        <v>45170</v>
-      </c>
+      <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C412" s="13">
-        <v>1.25</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C412" s="13"/>
       <c r="D412" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H412" s="39"/>
+      <c r="G412" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H412" s="39">
+        <v>8</v>
+      </c>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
-      <c r="K412" s="20" t="s">
-        <v>335</v>
+      <c r="K412" s="49" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="40"/>
+      <c r="A413" s="40">
+        <f>EDATE(A411,1)</f>
+        <v>45108</v>
+      </c>
       <c r="B413" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C413" s="13"/>
+      <c r="C413" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D413" s="39"/>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G413" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H413" s="39">
         <v>1</v>
@@ -11562,89 +11566,90 @@
       <c r="I413" s="9"/>
       <c r="J413" s="11"/>
       <c r="K413" s="49">
-        <v>45181</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <f>EDATE(A412,1)</f>
-        <v>45200</v>
+        <f t="shared" ref="A414:A428" si="3">EDATE(A413,1)</f>
+        <v>45139</v>
       </c>
       <c r="B414" s="20" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C414" s="13">
         <v>1.25</v>
       </c>
-      <c r="D414" s="39"/>
+      <c r="D414" s="39">
+        <v>4</v>
+      </c>
       <c r="E414" s="9"/>
       <c r="F414" s="20"/>
       <c r="G414" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H414" s="39">
-        <v>1</v>
-      </c>
+      <c r="H414" s="39"/>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
-      <c r="K414" s="49">
-        <v>45201</v>
+      <c r="K414" s="20" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="40">
-        <f t="shared" si="3"/>
-        <v>45231</v>
-      </c>
-      <c r="B415" s="20"/>
-      <c r="C415" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A415" s="40"/>
+      <c r="B415" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C415" s="13"/>
       <c r="D415" s="39"/>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H415" s="39"/>
+      <c r="G415" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H415" s="39">
+        <v>1</v>
+      </c>
       <c r="I415" s="9"/>
       <c r="J415" s="11"/>
-      <c r="K415" s="20"/>
+      <c r="K415" s="49">
+        <v>45139</v>
+      </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <f t="shared" si="3"/>
-        <v>45261</v>
+        <f>EDATE(A414,1)</f>
+        <v>45170</v>
       </c>
       <c r="B416" s="20" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="C416" s="13">
         <v>1.25</v>
       </c>
-      <c r="D416" s="39"/>
+      <c r="D416" s="39">
+        <v>3</v>
+      </c>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
       <c r="G416" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H416" s="39">
-        <v>1</v>
-      </c>
+      <c r="H416" s="39"/>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="49">
-        <v>45287</v>
+      <c r="K416" s="20" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="B417" s="20"/>
+      <c r="A417" s="40"/>
+      <c r="B417" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C417" s="13"/>
       <c r="D417" s="39"/>
       <c r="E417" s="9"/>
@@ -11653,19 +11658,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H417" s="39"/>
+      <c r="H417" s="39">
+        <v>1</v>
+      </c>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="20"/>
+      <c r="K417" s="49">
+        <v>45181</v>
+      </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="40">
-        <f>EDATE(A416,1)</f>
-        <v>45292</v>
-      </c>
-      <c r="B418" s="20"/>
+      <c r="A418" s="40"/>
+      <c r="B418" s="20" t="s">
+        <v>339</v>
+      </c>
       <c r="C418" s="13"/>
-      <c r="D418" s="39"/>
+      <c r="D418" s="39">
+        <v>0.45800000000000002</v>
+      </c>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
       <c r="G418" s="13" t="str">
@@ -11675,35 +11685,44 @@
       <c r="H418" s="39"/>
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
-      <c r="K418" s="20"/>
+      <c r="K418" s="49"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <f t="shared" si="3"/>
-        <v>45323</v>
-      </c>
-      <c r="B419" s="20"/>
-      <c r="C419" s="13"/>
+        <f>EDATE(A416,1)</f>
+        <v>45200</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D419" s="39"/>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H419" s="39"/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H419" s="39">
+        <v>1</v>
+      </c>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="20"/>
+      <c r="K419" s="49" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="40">
-        <f t="shared" si="3"/>
-        <v>45352</v>
-      </c>
-      <c r="B420" s="20"/>
+      <c r="A420" s="40"/>
+      <c r="B420" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="C420" s="13"/>
-      <c r="D420" s="39"/>
+      <c r="D420" s="39">
+        <v>1</v>
+      </c>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
       <c r="G420" s="13" t="str">
@@ -11713,48 +11732,66 @@
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="20"/>
+      <c r="K420" s="49"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <f t="shared" si="3"/>
-        <v>45383</v>
-      </c>
-      <c r="B421" s="20"/>
-      <c r="C421" s="13"/>
-      <c r="D421" s="39"/>
+        <f>EDATE(A419,1)</f>
+        <v>45231</v>
+      </c>
+      <c r="B421" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C421" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D421" s="39">
+        <v>2</v>
+      </c>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G421" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20"/>
+      <c r="K421" s="20" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="3"/>
-        <v>45413</v>
-      </c>
-      <c r="B422" s="20"/>
-      <c r="C422" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B422" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C422" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D422" s="39"/>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H422" s="39"/>
+      <c r="G422" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H422" s="39">
+        <v>1</v>
+      </c>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="20"/>
+      <c r="K422" s="49">
+        <v>45287</v>
+      </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="40"/>
+      <c r="A423" s="48" t="s">
+        <v>336</v>
+      </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
       <c r="D423" s="39"/>
@@ -11770,7 +11807,10 @@
       <c r="K423" s="20"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="40"/>
+      <c r="A424" s="40">
+        <f>EDATE(A422,1)</f>
+        <v>45292</v>
+      </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
       <c r="D424" s="39"/>
@@ -11786,7 +11826,10 @@
       <c r="K424" s="20"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="40"/>
+      <c r="A425" s="40">
+        <f t="shared" si="3"/>
+        <v>45323</v>
+      </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
       <c r="D425" s="39"/>
@@ -11802,7 +11845,10 @@
       <c r="K425" s="20"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="40"/>
+      <c r="A426" s="40">
+        <f t="shared" si="3"/>
+        <v>45352</v>
+      </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
@@ -11818,7 +11864,10 @@
       <c r="K426" s="20"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="40"/>
+      <c r="A427" s="40">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
       <c r="D427" s="39"/>
@@ -11834,7 +11883,10 @@
       <c r="K427" s="20"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="40"/>
+      <c r="A428" s="40">
+        <f t="shared" si="3"/>
+        <v>45413</v>
+      </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
       <c r="D428" s="39"/>
@@ -12266,20 +12318,116 @@
       <c r="K454" s="20"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" s="41"/>
-      <c r="B455" s="15"/>
-      <c r="C455" s="42"/>
-      <c r="D455" s="43"/>
+      <c r="A455" s="40"/>
+      <c r="B455" s="20"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="39"/>
       <c r="E455" s="9"/>
-      <c r="F455" s="15"/>
-      <c r="G455" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H455" s="43"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H455" s="39"/>
       <c r="I455" s="9"/>
-      <c r="J455" s="12"/>
-      <c r="K455" s="15"/>
+      <c r="J455" s="11"/>
+      <c r="K455" s="20"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A456" s="40"/>
+      <c r="B456" s="20"/>
+      <c r="C456" s="13"/>
+      <c r="D456" s="39"/>
+      <c r="E456" s="9"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H456" s="39"/>
+      <c r="I456" s="9"/>
+      <c r="J456" s="11"/>
+      <c r="K456" s="20"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" s="40"/>
+      <c r="B457" s="20"/>
+      <c r="C457" s="13"/>
+      <c r="D457" s="39"/>
+      <c r="E457" s="9"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H457" s="39"/>
+      <c r="I457" s="9"/>
+      <c r="J457" s="11"/>
+      <c r="K457" s="20"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" s="40"/>
+      <c r="B458" s="20"/>
+      <c r="C458" s="13"/>
+      <c r="D458" s="39"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H458" s="39"/>
+      <c r="I458" s="9"/>
+      <c r="J458" s="11"/>
+      <c r="K458" s="20"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" s="40"/>
+      <c r="B459" s="20"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="39"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H459" s="39"/>
+      <c r="I459" s="9"/>
+      <c r="J459" s="11"/>
+      <c r="K459" s="20"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" s="40"/>
+      <c r="B460" s="20"/>
+      <c r="C460" s="13"/>
+      <c r="D460" s="39"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="20"/>
+      <c r="G460" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H460" s="39"/>
+      <c r="I460" s="9"/>
+      <c r="J460" s="11"/>
+      <c r="K460" s="20"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" s="41"/>
+      <c r="B461" s="15"/>
+      <c r="C461" s="42"/>
+      <c r="D461" s="43"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="15"/>
+      <c r="G461" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H461" s="43"/>
+      <c r="I461" s="9"/>
+      <c r="J461" s="12"/>
+      <c r="K461" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12390,15 +12538,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.1000000000000014E-2</v>
+        <v>5.8000000000000017E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -12447,7 +12593,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>66.341000000000008</v>
+        <v>58.317000000000007</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CCT/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/CCT/VELUZ, DORMILUNA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E83F6-D15E-4202-B309-455AA6C7C833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="337">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1010,12 +1011,6 @@
     <t>UT(0-2-43)</t>
   </si>
   <si>
-    <t>A(3-0-0)</t>
-  </si>
-  <si>
-    <t>9/8,9,23/2022</t>
-  </si>
-  <si>
     <t>UT(0-0-24)</t>
   </si>
   <si>
@@ -1025,9 +1020,6 @@
     <t>A(2-0-0)</t>
   </si>
   <si>
-    <t>7/11,18/2022</t>
-  </si>
-  <si>
     <t>UT(0-0-28)</t>
   </si>
   <si>
@@ -1046,28 +1038,19 @@
     <t>2024</t>
   </si>
   <si>
-    <t>11/10,13/2023</t>
-  </si>
-  <si>
-    <t>10/2/2023 (9)</t>
-  </si>
-  <si>
     <t>UT(0-3-40)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
-    <t>3/9,10,13/2023</t>
-  </si>
-  <si>
     <t>UT(0-4-4)</t>
+  </si>
+  <si>
+    <t>LIBRARIAN I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1304,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1453,9 +1436,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1751,7 +1731,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1768,26 +1748,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K461" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K461"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K460" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K460" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2094,34 +2074,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K461"/>
+  <dimension ref="A2:K460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3645" topLeftCell="A398" activePane="bottomLeft"/>
-      <selection activeCell="G13" sqref="G13"/>
-      <selection pane="bottomLeft" activeCell="K400" sqref="K400"/>
+      <pane ySplit="3648" topLeftCell="A386" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="K389" sqref="K389"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2133,56 +2113,58 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2190,7 +2172,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2203,24 +2185,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2264,7 +2246,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-9.9329999999999927</v>
+        <v>2.3170000000000073</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2274,12 +2256,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>68.25</v>
+        <v>68.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>84</v>
       </c>
@@ -2301,7 +2283,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>38504</v>
       </c>
@@ -2321,10 +2303,10 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
-        <f>EDATE(A11,1)</f>
-        <v>38534</v>
+        <f>EOMONTH(A11,1)</f>
+        <v>38564</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -2342,10 +2324,10 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
-        <f t="shared" ref="A13:A112" si="0">EDATE(A12,1)</f>
-        <v>38565</v>
+        <f>EOMONTH(A12,1)</f>
+        <v>38595</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
@@ -2363,10 +2345,10 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
-        <f t="shared" si="0"/>
-        <v>38596</v>
+        <f>EOMONTH(A13,1)</f>
+        <v>38625</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>45</v>
@@ -2390,7 +2372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -2408,10 +2390,10 @@
         <v>38573</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
-        <f>EDATE(A14,1)</f>
-        <v>38626</v>
+        <f>EOMONTH(A14,1)</f>
+        <v>38656</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>45</v>
@@ -2435,10 +2417,10 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
-        <f t="shared" si="0"/>
-        <v>38657</v>
+        <f>EOMONTH(A16,1)</f>
+        <v>38686</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13">
@@ -2456,10 +2438,10 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
-        <f t="shared" si="0"/>
-        <v>38687</v>
+        <f>EOMONTH(A17,1)</f>
+        <v>38717</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>45</v>
@@ -2483,7 +2465,7 @@
         <v>38364</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>85</v>
       </c>
@@ -2505,10 +2487,10 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
-        <f>EDATE(A18,1)</f>
-        <v>38718</v>
+        <f>EOMONTH(A18,1)</f>
+        <v>38748</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -2526,10 +2508,10 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
-        <f t="shared" si="0"/>
-        <v>38749</v>
+        <f>EOMONTH(A20,1)</f>
+        <v>38776</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -2547,10 +2529,10 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
-        <f t="shared" si="0"/>
-        <v>38777</v>
+        <f>EOMONTH(A21,1)</f>
+        <v>38807</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>45</v>
@@ -2574,7 +2556,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>96</v>
@@ -2596,7 +2578,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -2618,10 +2600,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
-        <f>EDATE(A22,1)</f>
-        <v>38808</v>
+        <f>EOMONTH(A22,1)</f>
+        <v>38837</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -2645,10 +2627,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
-        <f t="shared" si="0"/>
-        <v>38838</v>
+        <f>EOMONTH(A25,1)</f>
+        <v>38868</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
@@ -2666,10 +2648,10 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
-        <f t="shared" si="0"/>
-        <v>38869</v>
+        <f>EOMONTH(A26,1)</f>
+        <v>38898</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -2687,10 +2669,10 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
-        <f t="shared" si="0"/>
-        <v>38899</v>
+        <f>EOMONTH(A27,1)</f>
+        <v>38929</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -2708,10 +2690,10 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
-        <f t="shared" si="0"/>
-        <v>38930</v>
+        <f>EOMONTH(A28,1)</f>
+        <v>38960</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -2729,10 +2711,10 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
-        <f t="shared" si="0"/>
-        <v>38961</v>
+        <f>EOMONTH(A29,1)</f>
+        <v>38990</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -2750,10 +2732,10 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
-        <f t="shared" si="0"/>
-        <v>38991</v>
+        <f>EOMONTH(A30,1)</f>
+        <v>39021</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>45</v>
@@ -2777,10 +2759,10 @@
         <v>38786</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
-        <f t="shared" si="0"/>
-        <v>39022</v>
+        <f>EOMONTH(A31,1)</f>
+        <v>39051</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>45</v>
@@ -2804,10 +2786,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
-        <f t="shared" si="0"/>
-        <v>39052</v>
+        <f>EOMONTH(A32,1)</f>
+        <v>39082</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>45</v>
@@ -2831,7 +2813,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -2851,7 +2833,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>100</v>
@@ -2871,7 +2853,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>87</v>
       </c>
@@ -2893,10 +2875,10 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
-        <f>EDATE(A33,1)</f>
-        <v>39083</v>
+        <f>EOMONTH(A33,1)</f>
+        <v>39113</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>45</v>
@@ -2920,7 +2902,7 @@
         <v>39114</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -2942,7 +2924,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -2964,7 +2946,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -2986,7 +2968,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -3008,10 +2990,10 @@
         <v>39327</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
-        <f>EDATE(A37,1)</f>
-        <v>39114</v>
+        <f>EOMONTH(A37,1)</f>
+        <v>39141</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -3029,10 +3011,10 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
-        <f t="shared" si="0"/>
-        <v>39142</v>
+        <f>EOMONTH(A42,1)</f>
+        <v>39172</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>96</v>
@@ -3056,7 +3038,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -3078,10 +3060,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
-        <f>EDATE(A43,1)</f>
-        <v>39173</v>
+        <f>EOMONTH(A43,1)</f>
+        <v>39202</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>45</v>
@@ -3105,10 +3087,10 @@
         <v>39268</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
-        <f t="shared" si="0"/>
-        <v>39203</v>
+        <f>EOMONTH(A45,1)</f>
+        <v>39233</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>108</v>
@@ -3132,10 +3114,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
-        <f t="shared" si="0"/>
-        <v>39234</v>
+        <f>EOMONTH(A46,1)</f>
+        <v>39263</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -3153,10 +3135,10 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
-        <f t="shared" si="0"/>
-        <v>39264</v>
+        <f>EOMONTH(A47,1)</f>
+        <v>39294</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -3174,10 +3156,10 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
-        <f t="shared" si="0"/>
-        <v>39295</v>
+        <f>EOMONTH(A48,1)</f>
+        <v>39325</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -3201,10 +3183,10 @@
         <v>39363</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
-        <f t="shared" si="0"/>
-        <v>39326</v>
+        <f>EOMONTH(A49,1)</f>
+        <v>39355</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>45</v>
@@ -3228,7 +3210,7 @@
         <v>39150</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>45</v>
@@ -3250,7 +3232,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>45</v>
@@ -3272,10 +3254,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
-        <f>EDATE(A50,1)</f>
-        <v>39356</v>
+        <f>EOMONTH(A50,1)</f>
+        <v>39386</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -3299,10 +3281,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
-        <f t="shared" si="0"/>
-        <v>39387</v>
+        <f>EOMONTH(A53,1)</f>
+        <v>39416</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>45</v>
@@ -3326,7 +3308,7 @@
         <v>39213</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>258</v>
@@ -3348,7 +3330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -3370,10 +3352,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
-        <f>EDATE(A54,1)</f>
-        <v>39417</v>
+        <f>EOMONTH(A54,1)</f>
+        <v>39447</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -3391,7 +3373,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>95</v>
       </c>
@@ -3413,10 +3395,10 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
-        <f>EDATE(A57,1)</f>
-        <v>39448</v>
+        <f>EOMONTH(A57,1)</f>
+        <v>39478</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>66</v>
@@ -3440,7 +3422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3462,7 +3444,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>115</v>
@@ -3482,10 +3464,10 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
-        <f>EDATE(A59,1)</f>
-        <v>39479</v>
+        <f>EOMONTH(A59,1)</f>
+        <v>39507</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -3509,7 +3491,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>45</v>
@@ -3531,10 +3513,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
-        <f>EDATE(A62,1)</f>
-        <v>39508</v>
+        <f>EOMONTH(A62,1)</f>
+        <v>39538</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>45</v>
@@ -3558,7 +3540,7 @@
         <v>39632</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>45</v>
@@ -3580,7 +3562,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>45</v>
@@ -3602,7 +3584,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>116</v>
@@ -3622,10 +3604,10 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
-        <f>EDATE(A64,1)</f>
-        <v>39539</v>
+        <f>EOMONTH(A64,1)</f>
+        <v>39568</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>47</v>
@@ -3649,7 +3631,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>117</v>
@@ -3669,10 +3651,10 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
-        <f>EDATE(A68,1)</f>
-        <v>39569</v>
+        <f>EOMONTH(A68,1)</f>
+        <v>39599</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>118</v>
@@ -3696,7 +3678,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -3718,7 +3700,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>119</v>
@@ -3738,10 +3720,10 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
-        <f>EDATE(A70,1)</f>
-        <v>39600</v>
+        <f>EOMONTH(A70,1)</f>
+        <v>39629</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>53</v>
@@ -3763,7 +3745,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>66</v>
@@ -3785,7 +3767,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>120</v>
@@ -3805,10 +3787,10 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
-        <f>EDATE(A73,1)</f>
-        <v>39630</v>
+        <f>EOMONTH(A73,1)</f>
+        <v>39660</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -3826,10 +3808,10 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
-        <f t="shared" si="0"/>
-        <v>39661</v>
+        <f>EOMONTH(A76,1)</f>
+        <v>39691</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>45</v>
@@ -3853,7 +3835,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -3875,7 +3857,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>116</v>
@@ -3895,10 +3877,10 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
-        <f>EDATE(A77,1)</f>
-        <v>39692</v>
+        <f>EOMONTH(A77,1)</f>
+        <v>39721</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -3922,7 +3904,7 @@
         <v>39761</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>130</v>
@@ -3942,10 +3924,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
-        <f>EDATE(A80,1)</f>
-        <v>39722</v>
+        <f>EOMONTH(A80,1)</f>
+        <v>39752</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>45</v>
@@ -3969,7 +3951,7 @@
         <v>39609</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>45</v>
@@ -3991,7 +3973,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -4013,10 +3995,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
-        <f>EDATE(A82,1)</f>
-        <v>39753</v>
+        <f>EOMONTH(A82,1)</f>
+        <v>39782</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>109</v>
@@ -4040,7 +4022,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>45</v>
@@ -4062,10 +4044,10 @@
         <v>39640</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
-        <f>EDATE(A85,1)</f>
-        <v>39783</v>
+        <f>EOMONTH(A85,1)</f>
+        <v>39813</v>
       </c>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -4089,7 +4071,7 @@
         <v>39550</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>45</v>
@@ -4111,7 +4093,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>131</v>
@@ -4131,7 +4113,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>94</v>
       </c>
@@ -4153,10 +4135,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
-        <f>EDATE(A87,1)</f>
-        <v>39814</v>
+        <f>EOMONTH(A87,1)</f>
+        <v>39844</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -4174,10 +4156,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
-        <f t="shared" si="0"/>
-        <v>39845</v>
+        <f>EOMONTH(A91,1)</f>
+        <v>39872</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>53</v>
@@ -4199,10 +4181,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
-        <f t="shared" si="0"/>
-        <v>39873</v>
+        <f>EOMONTH(A92,1)</f>
+        <v>39903</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>45</v>
@@ -4226,10 +4208,10 @@
         <v>39936</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
-        <f t="shared" si="0"/>
-        <v>39904</v>
+        <f>EOMONTH(A93,1)</f>
+        <v>39933</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>136</v>
@@ -4253,10 +4235,10 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
-        <f t="shared" si="0"/>
-        <v>39934</v>
+        <f>EOMONTH(A94,1)</f>
+        <v>39964</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>139</v>
@@ -4278,10 +4260,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
-        <f t="shared" si="0"/>
-        <v>39965</v>
+        <f>EOMONTH(A95,1)</f>
+        <v>39994</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -4299,10 +4281,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
-        <f t="shared" si="0"/>
-        <v>39995</v>
+        <f>EOMONTH(A96,1)</f>
+        <v>40025</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13">
@@ -4320,10 +4302,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
-        <f t="shared" si="0"/>
-        <v>40026</v>
+        <f>EOMONTH(A97,1)</f>
+        <v>40056</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>45</v>
@@ -4347,10 +4329,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
-        <f t="shared" si="0"/>
-        <v>40057</v>
+        <f>EOMONTH(A98,1)</f>
+        <v>40086</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -4368,10 +4350,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
-        <f t="shared" si="0"/>
-        <v>40087</v>
+        <f>EOMONTH(A99,1)</f>
+        <v>40117</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -4389,10 +4371,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
-        <f t="shared" si="0"/>
-        <v>40118</v>
+        <f>EOMONTH(A100,1)</f>
+        <v>40147</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>47</v>
@@ -4416,7 +4398,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>109</v>
@@ -4438,10 +4420,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
-        <f>EDATE(A101,1)</f>
-        <v>40148</v>
+        <f>EOMONTH(A101,1)</f>
+        <v>40178</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>140</v>
@@ -4463,7 +4445,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>93</v>
       </c>
@@ -4485,10 +4467,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
-        <f>EDATE(A103,1)</f>
-        <v>40179</v>
+        <f>EOMONTH(A103,1)</f>
+        <v>40209</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13">
@@ -4506,10 +4488,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
-        <f t="shared" si="0"/>
-        <v>40210</v>
+        <f>EOMONTH(A105,1)</f>
+        <v>40237</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -4529,10 +4511,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
-        <f t="shared" si="0"/>
-        <v>40238</v>
+        <f>EOMONTH(A106,1)</f>
+        <v>40268</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13">
@@ -4550,10 +4532,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
-        <f t="shared" si="0"/>
-        <v>40269</v>
+        <f>EOMONTH(A107,1)</f>
+        <v>40298</v>
       </c>
       <c r="B108" s="20" t="s">
         <v>47</v>
@@ -4577,10 +4559,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
-        <f t="shared" si="0"/>
-        <v>40299</v>
+        <f>EOMONTH(A108,1)</f>
+        <v>40329</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>53</v>
@@ -4602,10 +4584,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
-        <f t="shared" si="0"/>
-        <v>40330</v>
+        <f>EOMONTH(A109,1)</f>
+        <v>40359</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13">
@@ -4623,10 +4605,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
-        <f t="shared" si="0"/>
-        <v>40360</v>
+        <f>EOMONTH(A110,1)</f>
+        <v>40390</v>
       </c>
       <c r="B111" s="20" t="s">
         <v>147</v>
@@ -4648,10 +4630,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
-        <f t="shared" si="0"/>
-        <v>40391</v>
+        <f>EOMONTH(A111,1)</f>
+        <v>40421</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>148</v>
@@ -4673,10 +4655,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
-        <f t="shared" ref="A113:A221" si="1">EDATE(A112,1)</f>
-        <v>40422</v>
+        <f>EOMONTH(A112,1)</f>
+        <v>40451</v>
       </c>
       <c r="B113" s="20" t="s">
         <v>45</v>
@@ -4700,7 +4682,7 @@
         <v>40246</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>149</v>
@@ -4720,10 +4702,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
-        <f>EDATE(A113,1)</f>
-        <v>40452</v>
+        <f>EOMONTH(A113,1)</f>
+        <v>40482</v>
       </c>
       <c r="B115" s="20" t="s">
         <v>45</v>
@@ -4747,7 +4729,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>150</v>
@@ -4767,10 +4749,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
-        <f>EDATE(A115,1)</f>
-        <v>40483</v>
+        <f>EOMONTH(A115,1)</f>
+        <v>40512</v>
       </c>
       <c r="B117" s="20" t="s">
         <v>151</v>
@@ -4792,10 +4774,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
-        <f t="shared" si="1"/>
-        <v>40513</v>
+        <f>EOMONTH(A117,1)</f>
+        <v>40543</v>
       </c>
       <c r="B118" s="20" t="s">
         <v>45</v>
@@ -4819,7 +4801,7 @@
         <v>40433</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>92</v>
       </c>
@@ -4841,10 +4823,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
-        <f>EDATE(A118,1)</f>
-        <v>40544</v>
+        <f>EOMONTH(A118,1)</f>
+        <v>40574</v>
       </c>
       <c r="B120" s="20" t="s">
         <v>154</v>
@@ -4866,10 +4848,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
-        <f t="shared" si="1"/>
-        <v>40575</v>
+        <f>EOMONTH(A120,1)</f>
+        <v>40602</v>
       </c>
       <c r="B121" s="20" t="s">
         <v>155</v>
@@ -4891,10 +4873,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
-        <f t="shared" si="1"/>
-        <v>40603</v>
+        <f>EOMONTH(A121,1)</f>
+        <v>40633</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>156</v>
@@ -4918,10 +4900,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
-        <f t="shared" si="1"/>
-        <v>40634</v>
+        <f>EOMONTH(A122,1)</f>
+        <v>40663</v>
       </c>
       <c r="B123" s="20" t="s">
         <v>53</v>
@@ -4943,7 +4925,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>53</v>
@@ -4963,7 +4945,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>53</v>
@@ -4983,7 +4965,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>157</v>
@@ -5005,7 +4987,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5023,10 +5005,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
-        <f>EDATE(A123,1)</f>
-        <v>40664</v>
+        <f>EOMONTH(A123,1)</f>
+        <v>40694</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -5044,10 +5026,10 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
-        <f t="shared" si="1"/>
-        <v>40695</v>
+        <f>EOMONTH(A128,1)</f>
+        <v>40724</v>
       </c>
       <c r="B129" s="20" t="s">
         <v>45</v>
@@ -5071,7 +5053,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>167</v>
@@ -5091,10 +5073,10 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
-        <f>EDATE(A129,1)</f>
-        <v>40725</v>
+        <f>EOMONTH(A129,1)</f>
+        <v>40755</v>
       </c>
       <c r="B131" s="20" t="s">
         <v>45</v>
@@ -5118,7 +5100,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>169</v>
@@ -5137,7 +5119,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>170</v>
@@ -5154,10 +5136,10 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
-        <f>EDATE(A131,1)</f>
-        <v>40756</v>
+        <f>EOMONTH(A131,1)</f>
+        <v>40786</v>
       </c>
       <c r="B134" s="20" t="s">
         <v>50</v>
@@ -5183,10 +5165,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
-        <f t="shared" si="1"/>
-        <v>40787</v>
+        <f>EOMONTH(A134,1)</f>
+        <v>40816</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -5204,10 +5186,10 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
-        <f t="shared" si="1"/>
-        <v>40817</v>
+        <f>EOMONTH(A135,1)</f>
+        <v>40847</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13">
@@ -5225,10 +5207,10 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
-        <f t="shared" si="1"/>
-        <v>40848</v>
+        <f>EOMONTH(A136,1)</f>
+        <v>40877</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -5246,10 +5228,10 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
-        <f t="shared" si="1"/>
-        <v>40878</v>
+        <f>EOMONTH(A137,1)</f>
+        <v>40908</v>
       </c>
       <c r="B138" s="20" t="s">
         <v>164</v>
@@ -5275,7 +5257,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>165</v>
@@ -5295,7 +5277,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>166</v>
@@ -5323,7 +5305,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="48" t="s">
         <v>91</v>
       </c>
@@ -5345,10 +5327,10 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
-        <f>EDATE(A138,1)</f>
-        <v>40909</v>
+        <f>EOMONTH(A138,1)</f>
+        <v>40939</v>
       </c>
       <c r="B142" s="20" t="s">
         <v>139</v>
@@ -5368,10 +5350,10 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
-        <f t="shared" si="1"/>
-        <v>40940</v>
+        <f>EOMONTH(A142,1)</f>
+        <v>40968</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -5389,10 +5371,10 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
-        <f t="shared" si="1"/>
-        <v>40969</v>
+        <f>EOMONTH(A143,1)</f>
+        <v>40999</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>109</v>
@@ -5416,10 +5398,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
-        <f t="shared" si="1"/>
-        <v>41000</v>
+        <f>EOMONTH(A144,1)</f>
+        <v>41029</v>
       </c>
       <c r="B145" s="20" t="s">
         <v>178</v>
@@ -5441,7 +5423,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>45</v>
@@ -5463,10 +5445,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
-        <f>EDATE(A145,1)</f>
-        <v>41030</v>
+        <f>EOMONTH(A145,1)</f>
+        <v>41060</v>
       </c>
       <c r="B147" s="20" t="s">
         <v>47</v>
@@ -5490,7 +5472,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>49</v>
@@ -5514,10 +5496,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
-        <f>EDATE(A147,1)</f>
-        <v>41061</v>
+        <f>EOMONTH(A147,1)</f>
+        <v>41090</v>
       </c>
       <c r="B149" s="20" t="s">
         <v>50</v>
@@ -5543,10 +5525,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
-        <f t="shared" si="1"/>
-        <v>41091</v>
+        <f>EOMONTH(A149,1)</f>
+        <v>41121</v>
       </c>
       <c r="B150" s="20" t="s">
         <v>50</v>
@@ -5572,7 +5554,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5592,10 +5574,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
-        <f>EDATE(A150,1)</f>
-        <v>41122</v>
+        <f>EOMONTH(A150,1)</f>
+        <v>41152</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>45</v>
@@ -5621,7 +5603,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>50</v>
@@ -5645,10 +5627,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
-        <f>EDATE(A152,1)</f>
-        <v>41153</v>
+        <f>EOMONTH(A152,1)</f>
+        <v>41182</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>47</v>
@@ -5672,7 +5654,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>47</v>
@@ -5694,7 +5676,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5716,10 +5698,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
-        <f>EDATE(A154,1)</f>
-        <v>41183</v>
+        <f>EOMONTH(A154,1)</f>
+        <v>41213</v>
       </c>
       <c r="B157" s="20" t="s">
         <v>50</v>
@@ -5745,7 +5727,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>50</v>
@@ -5769,10 +5751,10 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
-        <f>EDATE(A157,1)</f>
-        <v>41214</v>
+        <f>EOMONTH(A157,1)</f>
+        <v>41243</v>
       </c>
       <c r="B159" s="20" t="s">
         <v>46</v>
@@ -5794,7 +5776,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>45</v>
@@ -5814,10 +5796,10 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
-        <f>EDATE(A159,1)</f>
-        <v>41244</v>
+        <f>EOMONTH(A159,1)</f>
+        <v>41274</v>
       </c>
       <c r="B161" s="20" t="s">
         <v>45</v>
@@ -5841,7 +5823,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>50</v>
@@ -5865,7 +5847,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>53</v>
@@ -5885,7 +5867,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="48" t="s">
         <v>90</v>
       </c>
@@ -5907,10 +5889,10 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
-        <f>EDATE(A161,1)</f>
-        <v>41275</v>
+        <f>EOMONTH(A161,1)</f>
+        <v>41305</v>
       </c>
       <c r="B165" s="20" t="s">
         <v>178</v>
@@ -5932,7 +5914,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>53</v>
@@ -5952,7 +5934,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>169</v>
@@ -5970,11 +5952,11 @@
       </c>
       <c r="I167" s="34"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="52" t="s">
+      <c r="K167" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>194</v>
@@ -5994,10 +5976,10 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
-        <f>EDATE(A165,1)</f>
-        <v>41306</v>
+        <f>EOMONTH(A165,1)</f>
+        <v>41333</v>
       </c>
       <c r="B169" s="20" t="s">
         <v>50</v>
@@ -6025,7 +6007,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>195</v>
@@ -6047,10 +6029,10 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
-        <f>EDATE(A169,1)</f>
-        <v>41334</v>
+        <f>EOMONTH(A169,1)</f>
+        <v>41364</v>
       </c>
       <c r="B171" s="20" t="s">
         <v>45</v>
@@ -6074,7 +6056,7 @@
         <v>41458</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>196</v>
@@ -6094,10 +6076,10 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
-        <f>EDATE(A171,1)</f>
-        <v>41365</v>
+        <f>EOMONTH(A171,1)</f>
+        <v>41394</v>
       </c>
       <c r="B173" s="20" t="s">
         <v>50</v>
@@ -6123,10 +6105,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
-        <f t="shared" si="1"/>
-        <v>41395</v>
+        <f>EOMONTH(A173,1)</f>
+        <v>41425</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13">
@@ -6144,10 +6126,10 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
-        <f t="shared" si="1"/>
-        <v>41426</v>
+        <f>EOMONTH(A174,1)</f>
+        <v>41455</v>
       </c>
       <c r="B175" s="20" t="s">
         <v>45</v>
@@ -6171,7 +6153,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>50</v>
@@ -6195,7 +6177,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>50</v>
@@ -6217,7 +6199,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>205</v>
@@ -6237,10 +6219,10 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
-        <f>EDATE(A175,1)</f>
-        <v>41456</v>
+        <f>EOMONTH(A175,1)</f>
+        <v>41486</v>
       </c>
       <c r="B179" s="20" t="s">
         <v>50</v>
@@ -6266,7 +6248,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>206</v>
@@ -6288,7 +6270,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>207</v>
@@ -6310,7 +6292,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>208</v>
@@ -6332,10 +6314,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
-        <f>EDATE(A179,1)</f>
-        <v>41487</v>
+        <f>EOMONTH(A179,1)</f>
+        <v>41517</v>
       </c>
       <c r="B183" s="20" t="s">
         <v>45</v>
@@ -6359,7 +6341,7 @@
         <v>41433</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>47</v>
@@ -6381,7 +6363,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>47</v>
@@ -6403,7 +6385,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>209</v>
@@ -6423,10 +6405,10 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
-        <f>EDATE(A183,1)</f>
-        <v>41518</v>
+        <f>EOMONTH(A183,1)</f>
+        <v>41547</v>
       </c>
       <c r="B187" s="20" t="s">
         <v>45</v>
@@ -6450,7 +6432,7 @@
         <v>41617</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>50</v>
@@ -6474,7 +6456,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>210</v>
@@ -6494,10 +6476,10 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
-        <f>EDATE(A187,1)</f>
-        <v>41548</v>
+        <f>EOMONTH(A187,1)</f>
+        <v>41578</v>
       </c>
       <c r="B190" s="20" t="s">
         <v>47</v>
@@ -6523,7 +6505,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>211</v>
@@ -6543,10 +6525,10 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
-        <f>EDATE(A190,1)</f>
-        <v>41579</v>
+        <f>EOMONTH(A190,1)</f>
+        <v>41608</v>
       </c>
       <c r="B192" s="20" t="s">
         <v>212</v>
@@ -6568,10 +6550,10 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
-        <f t="shared" si="1"/>
-        <v>41609</v>
+        <f>EOMONTH(A192,1)</f>
+        <v>41639</v>
       </c>
       <c r="B193" s="20" t="s">
         <v>47</v>
@@ -6595,7 +6577,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>213</v>
@@ -6615,7 +6597,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="48" t="s">
         <v>89</v>
       </c>
@@ -6637,10 +6619,10 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
-        <f>EDATE(A193,1)</f>
-        <v>41640</v>
+        <f>EOMONTH(A193,1)</f>
+        <v>41670</v>
       </c>
       <c r="B196" s="20" t="s">
         <v>47</v>
@@ -6666,7 +6648,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -6688,7 +6670,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>225</v>
@@ -6708,10 +6690,10 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
-        <f>EDATE(A196,1)</f>
-        <v>41671</v>
+        <f>EOMONTH(A196,1)</f>
+        <v>41698</v>
       </c>
       <c r="B199" s="20" t="s">
         <v>46</v>
@@ -6735,7 +6717,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>139</v>
@@ -6755,10 +6737,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
-        <f>EDATE(A199,1)</f>
-        <v>41699</v>
+        <f>EOMONTH(A199,1)</f>
+        <v>41729</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13">
@@ -6776,10 +6758,10 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
-        <f t="shared" si="1"/>
-        <v>41730</v>
+        <f>EOMONTH(A201,1)</f>
+        <v>41759</v>
       </c>
       <c r="B202" s="20" t="s">
         <v>49</v>
@@ -6805,7 +6787,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>50</v>
@@ -6827,7 +6809,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>226</v>
@@ -6847,10 +6829,10 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
-        <f>EDATE(A202,1)</f>
-        <v>41760</v>
+        <f>EOMONTH(A202,1)</f>
+        <v>41790</v>
       </c>
       <c r="B205" s="20" t="s">
         <v>45</v>
@@ -6874,7 +6856,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>53</v>
@@ -6894,7 +6876,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>49</v>
@@ -6920,7 +6902,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>53</v>
@@ -6940,7 +6922,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>227</v>
@@ -6960,10 +6942,10 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
-        <f>EDATE(A205,1)</f>
-        <v>41791</v>
+        <f>EOMONTH(A205,1)</f>
+        <v>41820</v>
       </c>
       <c r="B210" s="20" t="s">
         <v>45</v>
@@ -6987,7 +6969,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>169</v>
@@ -7009,7 +6991,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>47</v>
@@ -7031,10 +7013,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
-        <f>EDATE(A210,1)</f>
-        <v>41821</v>
+        <f>EOMONTH(A210,1)</f>
+        <v>41851</v>
       </c>
       <c r="B213" s="20" t="s">
         <v>47</v>
@@ -7058,7 +7040,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>47</v>
@@ -7080,10 +7062,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
-        <f>EDATE(A213,1)</f>
-        <v>41852</v>
+        <f>EOMONTH(A213,1)</f>
+        <v>41882</v>
       </c>
       <c r="B215" s="20" t="s">
         <v>47</v>
@@ -7105,7 +7087,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>169</v>
@@ -7129,7 +7111,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>169</v>
@@ -7151,7 +7133,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>47</v>
@@ -7173,10 +7155,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
-        <f>EDATE(A215,1)</f>
-        <v>41883</v>
+        <f>EOMONTH(A215,1)</f>
+        <v>41912</v>
       </c>
       <c r="B219" s="20" t="s">
         <v>245</v>
@@ -7198,10 +7180,10 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
-        <f t="shared" si="1"/>
-        <v>41913</v>
+        <f>EOMONTH(A219,1)</f>
+        <v>41943</v>
       </c>
       <c r="B220" s="20" t="s">
         <v>246</v>
@@ -7223,10 +7205,10 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
-        <f t="shared" si="1"/>
-        <v>41944</v>
+        <f>EOMONTH(A220,1)</f>
+        <v>41973</v>
       </c>
       <c r="B221" s="20" t="s">
         <v>45</v>
@@ -7250,7 +7232,7 @@
         <v>41709</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>247</v>
@@ -7270,10 +7252,10 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
-        <f>EDATE(A221,1)</f>
-        <v>41974</v>
+        <f>EOMONTH(A221,1)</f>
+        <v>42004</v>
       </c>
       <c r="B223" s="20" t="s">
         <v>47</v>
@@ -7295,7 +7277,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>248</v>
@@ -7315,7 +7297,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="48" t="s">
         <v>88</v>
       </c>
@@ -7335,10 +7317,10 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
-        <f>EDATE(A223,1)</f>
-        <v>42005</v>
+        <f>EOMONTH(A223,1)</f>
+        <v>42035</v>
       </c>
       <c r="B226" s="20" t="s">
         <v>45</v>
@@ -7360,7 +7342,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>251</v>
@@ -7380,10 +7362,10 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
-        <f>EDATE(A226,1)</f>
-        <v>42036</v>
+        <f>EOMONTH(A226,1)</f>
+        <v>42063</v>
       </c>
       <c r="B228" s="20" t="s">
         <v>168</v>
@@ -7411,7 +7393,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>252</v>
@@ -7431,10 +7413,10 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
-        <f>EDATE(A228,1)</f>
-        <v>42064</v>
+        <f>EOMONTH(A228,1)</f>
+        <v>42094</v>
       </c>
       <c r="B230" s="20" t="s">
         <v>45</v>
@@ -7458,7 +7440,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>253</v>
@@ -7480,7 +7462,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>254</v>
@@ -7502,7 +7484,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>255</v>
@@ -7524,10 +7506,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
-        <f>EDATE(A230,1)</f>
-        <v>42095</v>
+        <f>EOMONTH(A230,1)</f>
+        <v>42124</v>
       </c>
       <c r="B234" s="20" t="s">
         <v>256</v>
@@ -7551,10 +7533,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
-        <f t="shared" ref="A235:A294" si="2">EDATE(A234,1)</f>
-        <v>42125</v>
+        <f>EOMONTH(A234,1)</f>
+        <v>42155</v>
       </c>
       <c r="B235" s="20" t="s">
         <v>257</v>
@@ -7578,10 +7560,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
-        <f t="shared" si="2"/>
-        <v>42156</v>
+        <f>EOMONTH(A235,1)</f>
+        <v>42185</v>
       </c>
       <c r="B236" s="20" t="s">
         <v>47</v>
@@ -7605,7 +7587,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>258</v>
@@ -7627,7 +7609,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>254</v>
@@ -7649,7 +7631,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>268</v>
@@ -7673,10 +7655,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
-        <f>EDATE(A236,1)</f>
-        <v>42186</v>
+        <f>EOMONTH(A236,1)</f>
+        <v>42216</v>
       </c>
       <c r="B240" s="20" t="s">
         <v>269</v>
@@ -7702,10 +7684,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
-        <f t="shared" si="2"/>
-        <v>42217</v>
+        <f>EOMONTH(A240,1)</f>
+        <v>42247</v>
       </c>
       <c r="B241" s="20" t="s">
         <v>270</v>
@@ -7727,10 +7709,10 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
-        <f t="shared" si="2"/>
-        <v>42248</v>
+        <f>EOMONTH(A241,1)</f>
+        <v>42277</v>
       </c>
       <c r="B242" s="20" t="s">
         <v>271</v>
@@ -7752,10 +7734,10 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
-        <f t="shared" si="2"/>
-        <v>42278</v>
+        <f>EOMONTH(A242,1)</f>
+        <v>42308</v>
       </c>
       <c r="B243" s="20" t="s">
         <v>47</v>
@@ -7779,7 +7761,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>272</v>
@@ -7799,10 +7781,10 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
-        <f>EDATE(A243,1)</f>
-        <v>42309</v>
+        <f>EOMONTH(A243,1)</f>
+        <v>42338</v>
       </c>
       <c r="B245" s="20" t="s">
         <v>273</v>
@@ -7824,10 +7806,10 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
-        <f t="shared" si="2"/>
-        <v>42339</v>
+        <f>EOMONTH(A245,1)</f>
+        <v>42369</v>
       </c>
       <c r="B246" s="20" t="s">
         <v>169</v>
@@ -7851,7 +7833,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>206</v>
@@ -7873,7 +7855,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -7895,7 +7877,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>274</v>
@@ -7915,7 +7897,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="48" t="s">
         <v>250</v>
       </c>
@@ -7937,10 +7919,10 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
-        <f>EDATE(A246,1)</f>
-        <v>42370</v>
+        <f>EOMONTH(A246,1)</f>
+        <v>42400</v>
       </c>
       <c r="B251" s="20" t="s">
         <v>53</v>
@@ -7960,7 +7942,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>47</v>
@@ -7982,7 +7964,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>281</v>
@@ -8002,10 +7984,10 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
-        <f>EDATE(A251,1)</f>
-        <v>42401</v>
+        <f>EOMONTH(A251,1)</f>
+        <v>42429</v>
       </c>
       <c r="B254" s="20" t="s">
         <v>282</v>
@@ -8027,10 +8009,10 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
-        <f t="shared" si="2"/>
-        <v>42430</v>
+        <f>EOMONTH(A254,1)</f>
+        <v>42460</v>
       </c>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -8054,7 +8036,7 @@
         <v>42554</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>283</v>
@@ -8074,10 +8056,10 @@
       <c r="J256" s="11"/>
       <c r="K256" s="49"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
-        <f>EDATE(A255,1)</f>
-        <v>42461</v>
+        <f>EOMONTH(A255,1)</f>
+        <v>42490</v>
       </c>
       <c r="B257" s="20" t="s">
         <v>47</v>
@@ -8101,7 +8083,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>284</v>
@@ -8121,10 +8103,10 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
-        <f>EDATE(A257,1)</f>
-        <v>42491</v>
+        <f>EOMONTH(A257,1)</f>
+        <v>42521</v>
       </c>
       <c r="B259" s="20" t="s">
         <v>258</v>
@@ -8148,7 +8130,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>53</v>
@@ -8168,7 +8150,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>285</v>
@@ -8188,10 +8170,10 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
-        <f>EDATE(A259,1)</f>
-        <v>42522</v>
+        <f>EOMONTH(A259,1)</f>
+        <v>42551</v>
       </c>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -8213,7 +8195,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>47</v>
@@ -8235,7 +8217,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>286</v>
@@ -8255,10 +8237,10 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
-        <f>EDATE(A262,1)</f>
-        <v>42552</v>
+        <f>EOMONTH(A262,1)</f>
+        <v>42582</v>
       </c>
       <c r="B265" s="20" t="s">
         <v>45</v>
@@ -8282,10 +8264,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
-        <f t="shared" si="2"/>
-        <v>42583</v>
+        <f>EOMONTH(A265,1)</f>
+        <v>42613</v>
       </c>
       <c r="B266" s="20" t="s">
         <v>79</v>
@@ -8309,7 +8291,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>287</v>
@@ -8329,10 +8311,10 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
-        <f>EDATE(A266,1)</f>
-        <v>42614</v>
+        <f>EOMONTH(A266,1)</f>
+        <v>42643</v>
       </c>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -8356,7 +8338,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>45</v>
@@ -8378,7 +8360,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>139</v>
@@ -8398,10 +8380,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
-        <f>EDATE(A268,1)</f>
-        <v>42644</v>
+        <f>EOMONTH(A268,1)</f>
+        <v>42674</v>
       </c>
       <c r="B271" s="20" t="s">
         <v>288</v>
@@ -8423,10 +8405,10 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
-        <f t="shared" si="2"/>
-        <v>42675</v>
+        <f>EOMONTH(A271,1)</f>
+        <v>42704</v>
       </c>
       <c r="B272" s="20" t="s">
         <v>289</v>
@@ -8448,10 +8430,10 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
-        <f t="shared" si="2"/>
-        <v>42705</v>
+        <f>EOMONTH(A272,1)</f>
+        <v>42735</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="13">
@@ -8469,7 +8451,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="48" t="s">
         <v>249</v>
       </c>
@@ -8493,10 +8475,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
-        <f>EDATE(A273,1)</f>
-        <v>42736</v>
+        <f>EOMONTH(A273,1)</f>
+        <v>42766</v>
       </c>
       <c r="B275" s="20" t="s">
         <v>299</v>
@@ -8520,10 +8502,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
-        <f t="shared" si="2"/>
-        <v>42767</v>
+        <f>EOMONTH(A275,1)</f>
+        <v>42794</v>
       </c>
       <c r="B276" s="20" t="s">
         <v>300</v>
@@ -8545,7 +8527,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>301</v>
@@ -8567,7 +8549,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>258</v>
@@ -8589,10 +8571,10 @@
         <v>306</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
-        <f>EDATE(A276,1)</f>
-        <v>42795</v>
+        <f>EOMONTH(A276,1)</f>
+        <v>42825</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -8610,10 +8592,10 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
-        <f t="shared" si="2"/>
-        <v>42826</v>
+        <f>EOMONTH(A279,1)</f>
+        <v>42855</v>
       </c>
       <c r="B280" s="20" t="s">
         <v>45</v>
@@ -8637,7 +8619,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>45</v>
@@ -8659,10 +8641,10 @@
         <v>308</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
-        <f>EDATE(A280,1)</f>
-        <v>42856</v>
+        <f>EOMONTH(A280,1)</f>
+        <v>42886</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13">
@@ -8680,10 +8662,10 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
-        <f t="shared" si="2"/>
-        <v>42887</v>
+        <f>EOMONTH(A282,1)</f>
+        <v>42916</v>
       </c>
       <c r="B283" s="20" t="s">
         <v>45</v>
@@ -8707,7 +8689,7 @@
         <v>42953</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -8729,10 +8711,10 @@
         <v>309</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23">
-        <f>EDATE(A283,1)</f>
-        <v>42917</v>
+        <f>EOMONTH(A283,1)</f>
+        <v>42947</v>
       </c>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -8756,10 +8738,10 @@
         <v>43046</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
-        <f t="shared" si="2"/>
-        <v>42948</v>
+        <f>EOMONTH(A285,1)</f>
+        <v>42978</v>
       </c>
       <c r="B286" s="20" t="s">
         <v>45</v>
@@ -8783,7 +8765,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -8799,7 +8781,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>47</v>
@@ -8821,10 +8803,10 @@
         <v>311</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
-        <f>EDATE(A286,1)</f>
-        <v>42979</v>
+        <f>EOMONTH(A286,1)</f>
+        <v>43008</v>
       </c>
       <c r="B289" s="20" t="s">
         <v>45</v>
@@ -8848,7 +8830,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>164</v>
@@ -8870,10 +8852,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
-        <f>EDATE(A289,1)</f>
-        <v>43009</v>
+        <f>EOMONTH(A289,1)</f>
+        <v>43039</v>
       </c>
       <c r="B291" s="20" t="s">
         <v>169</v>
@@ -8897,7 +8879,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>47</v>
@@ -8919,10 +8901,10 @@
         <v>314</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
-        <f>EDATE(A291,1)</f>
-        <v>43040</v>
+        <f>EOMONTH(A291,1)</f>
+        <v>43069</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13">
@@ -8940,10 +8922,10 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
-        <f t="shared" si="2"/>
-        <v>43070</v>
+        <f>EOMONTH(A293,1)</f>
+        <v>43100</v>
       </c>
       <c r="B294" s="20" t="s">
         <v>47</v>
@@ -8967,7 +8949,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>50</v>
@@ -8991,7 +8973,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="48" t="s">
         <v>44</v>
       </c>
@@ -9009,7 +8991,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43101</v>
       </c>
@@ -9029,7 +9011,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>43132</v>
       </c>
@@ -9055,7 +9037,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -9074,7 +9056,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>46</v>
@@ -9095,7 +9077,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>47</v>
@@ -9114,7 +9096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>43160</v>
       </c>
@@ -9140,7 +9122,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>49</v>
@@ -9163,7 +9145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>43191</v>
       </c>
@@ -9189,7 +9171,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>46</v>
@@ -9212,7 +9194,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>50</v>
@@ -9233,7 +9215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>53</v>
@@ -9250,7 +9232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>53</v>
@@ -9267,7 +9249,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>53</v>
@@ -9284,7 +9266,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>43221</v>
       </c>
@@ -9304,7 +9286,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>43252</v>
       </c>
@@ -9324,7 +9306,7 @@
       <c r="J311" s="12"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>43282</v>
       </c>
@@ -9350,7 +9332,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>47</v>
@@ -9369,7 +9351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>45</v>
@@ -9388,7 +9370,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>45</v>
@@ -9407,7 +9389,7 @@
         <v>43320</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>46</v>
@@ -9426,7 +9408,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>43313</v>
       </c>
@@ -9452,7 +9434,7 @@
         <v>43335</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>43344</v>
       </c>
@@ -9478,7 +9460,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -9497,7 +9479,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>43374</v>
       </c>
@@ -9517,7 +9499,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>43405</v>
       </c>
@@ -9537,7 +9519,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>43435</v>
       </c>
@@ -9563,7 +9545,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="48" t="s">
         <v>57</v>
       </c>
@@ -9581,7 +9563,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>43466</v>
       </c>
@@ -9607,7 +9589,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>45</v>
@@ -9624,7 +9606,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>43497</v>
       </c>
@@ -9650,7 +9632,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>43525</v>
       </c>
@@ -9676,7 +9658,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>45</v>
@@ -9695,7 +9677,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>43556</v>
       </c>
@@ -9721,7 +9703,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>43586</v>
       </c>
@@ -9747,7 +9729,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>43617</v>
       </c>
@@ -9771,7 +9753,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>45</v>
@@ -9790,7 +9772,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>43647</v>
       </c>
@@ -9816,7 +9798,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>58</v>
@@ -9837,7 +9819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>50</v>
@@ -9856,7 +9838,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>50</v>
@@ -9875,7 +9857,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>43678</v>
       </c>
@@ -9895,7 +9877,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>43709</v>
       </c>
@@ -9923,7 +9905,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>46</v>
@@ -9942,7 +9924,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>60</v>
@@ -9961,7 +9943,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>60</v>
@@ -9980,7 +9962,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>43739</v>
       </c>
@@ -10000,7 +9982,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>43770</v>
       </c>
@@ -10026,7 +10008,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>46</v>
@@ -10047,7 +10029,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>43800</v>
       </c>
@@ -10073,7 +10055,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>46</v>
@@ -10097,7 +10079,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -10115,7 +10097,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="48" t="s">
         <v>63</v>
       </c>
@@ -10133,7 +10115,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>43831</v>
       </c>
@@ -10159,7 +10141,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>46</v>
@@ -10178,7 +10160,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>64</v>
@@ -10195,7 +10177,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>45</v>
@@ -10214,7 +10196,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>43862</v>
       </c>
@@ -10234,7 +10216,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>43891</v>
       </c>
@@ -10260,7 +10242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>43922</v>
       </c>
@@ -10280,7 +10262,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>43952</v>
       </c>
@@ -10300,7 +10282,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>43983</v>
       </c>
@@ -10324,7 +10306,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>44013</v>
       </c>
@@ -10344,7 +10326,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>44044</v>
       </c>
@@ -10364,7 +10346,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>44075</v>
       </c>
@@ -10384,7 +10366,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>44105</v>
       </c>
@@ -10404,7 +10386,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44136</v>
       </c>
@@ -10424,7 +10406,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>44166</v>
       </c>
@@ -10450,7 +10432,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="48" t="s">
         <v>69</v>
       </c>
@@ -10468,7 +10450,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>44197</v>
       </c>
@@ -10494,7 +10476,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>44228</v>
       </c>
@@ -10520,7 +10502,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>44256</v>
       </c>
@@ -10540,7 +10522,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44287</v>
       </c>
@@ -10560,7 +10542,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>44317</v>
       </c>
@@ -10580,7 +10562,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>44348</v>
       </c>
@@ -10600,7 +10582,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>44378</v>
       </c>
@@ -10620,7 +10602,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>44409</v>
       </c>
@@ -10640,7 +10622,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>44440</v>
       </c>
@@ -10664,7 +10646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>44470</v>
       </c>
@@ -10684,7 +10666,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>44501</v>
       </c>
@@ -10704,7 +10686,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>44531</v>
       </c>
@@ -10730,7 +10712,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="48" t="s">
         <v>71</v>
       </c>
@@ -10748,7 +10730,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>44562</v>
       </c>
@@ -10768,7 +10750,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>44593</v>
       </c>
@@ -10788,7 +10770,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>44621</v>
       </c>
@@ -10814,7 +10796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>44652</v>
       </c>
@@ -10834,7 +10816,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>44682</v>
       </c>
@@ -10858,7 +10840,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>47</v>
@@ -10880,7 +10862,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>66</v>
@@ -10900,7 +10882,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>53</v>
@@ -10920,10 +10902,10 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C386" s="13"/>
       <c r="D386" s="39">
@@ -10940,12 +10922,12 @@
       <c r="J386" s="11"/>
       <c r="K386" s="49"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>44713</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C387" s="13">
         <v>1.25</v>
@@ -10963,13 +10945,13 @@
       <c r="I387" s="9"/>
       <c r="J387" s="11"/>
       <c r="K387" s="20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C388" s="13"/>
       <c r="D388" s="39">
@@ -10986,19 +10968,15 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>44743</v>
       </c>
-      <c r="B389" s="20" t="s">
-        <v>329</v>
-      </c>
+      <c r="B389" s="20"/>
       <c r="C389" s="13">
         <v>1.25</v>
       </c>
-      <c r="D389" s="39">
-        <v>2</v>
-      </c>
+      <c r="D389" s="39"/>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
       <c r="G389" s="13">
@@ -11008,14 +10986,12 @@
       <c r="H389" s="39"/>
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
-      <c r="K389" s="20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C390" s="13"/>
       <c r="D390" s="39">
@@ -11032,7 +11008,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>44774</v>
       </c>
@@ -11056,10 +11032,10 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C392" s="13"/>
       <c r="D392" s="39">
@@ -11076,19 +11052,15 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>44805</v>
       </c>
-      <c r="B393" s="20" t="s">
-        <v>325</v>
-      </c>
+      <c r="B393" s="20"/>
       <c r="C393" s="13">
         <v>1.25</v>
       </c>
-      <c r="D393" s="39">
-        <v>3</v>
-      </c>
+      <c r="D393" s="39"/>
       <c r="E393" s="9"/>
       <c r="F393" s="20"/>
       <c r="G393" s="13">
@@ -11098,14 +11070,12 @@
       <c r="H393" s="39"/>
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
-      <c r="K393" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K393" s="20"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C394" s="13"/>
       <c r="D394" s="39">
@@ -11122,7 +11092,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>44835</v>
       </c>
@@ -11146,7 +11116,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>44866</v>
       </c>
@@ -11170,7 +11140,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>44896</v>
       </c>
@@ -11196,7 +11166,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>323</v>
@@ -11216,7 +11186,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="49"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="48" t="s">
         <v>78</v>
       </c>
@@ -11234,7 +11204,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>44927</v>
       </c>
@@ -11260,7 +11230,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>44958</v>
       </c>
@@ -11286,10 +11256,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C402" s="13"/>
       <c r="D402" s="39">
@@ -11306,10 +11276,10 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
-        <f>EDATE(A401,1)</f>
-        <v>44986</v>
+        <f>EOMONTH(A401,1)</f>
+        <v>45016</v>
       </c>
       <c r="B403" s="20" t="s">
         <v>81</v>
@@ -11333,14 +11303,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C404" s="13"/>
       <c r="D404" s="39">
-        <v>3</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
@@ -11351,110 +11321,102 @@
       <c r="H404" s="39"/>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="40"/>
+      <c r="K404" s="20"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A405" s="40">
+        <f>EOMONTH(A403,1)</f>
+        <v>45046</v>
+      </c>
       <c r="B405" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="C405" s="13"/>
-      <c r="D405" s="39">
-        <v>0.50800000000000001</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C405" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D405" s="39"/>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H405" s="39"/>
+      <c r="G405" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H405" s="39">
+        <v>2</v>
+      </c>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="20"/>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40">
-        <f>EDATE(A403,1)</f>
-        <v>45017</v>
-      </c>
-      <c r="B406" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C406" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K405" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A406" s="40"/>
+      <c r="B406" s="20"/>
+      <c r="C406" s="13"/>
       <c r="D406" s="39"/>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H406" s="39">
-        <v>2</v>
-      </c>
+      <c r="G406" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H406" s="39"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
-      <c r="K406" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="40"/>
+      <c r="K406" s="49"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A407" s="40">
+        <f>EOMONTH(A405,1)</f>
+        <v>45077</v>
+      </c>
       <c r="B407" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="C407" s="13"/>
-      <c r="D407" s="39">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C407" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D407" s="39"/>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H407" s="39"/>
+      <c r="G407" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H407" s="39">
+        <v>1</v>
+      </c>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
       <c r="K407" s="49">
-        <v>45021</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="40">
-        <f>EDATE(A406,1)</f>
-        <v>45047</v>
-      </c>
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C408" s="13">
-        <v>1.25</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C408" s="13"/>
       <c r="D408" s="39"/>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H408" s="39">
-        <v>1</v>
-      </c>
+      <c r="G408" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H408" s="39"/>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
-      <c r="K408" s="49">
-        <v>45058</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K408" s="49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C409" s="13"/>
       <c r="D409" s="39"/>
@@ -11464,352 +11426,353 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H409" s="39"/>
+      <c r="H409" s="39">
+        <v>1</v>
+      </c>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
-      <c r="K409" s="49" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="40"/>
+      <c r="K409" s="49">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A410" s="40">
+        <f>EOMONTH(A407,1)</f>
+        <v>45107</v>
+      </c>
       <c r="B410" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C410" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C410" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D410" s="39"/>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H410" s="39">
-        <v>1</v>
-      </c>
+      <c r="G410" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H410" s="39"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
       <c r="K410" s="49">
-        <v>45072</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="40">
-        <f>EDATE(A408,1)</f>
-        <v>45078</v>
-      </c>
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C411" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D411" s="39"/>
+        <v>321</v>
+      </c>
+      <c r="C411" s="13"/>
+      <c r="D411" s="39">
+        <v>5</v>
+      </c>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H411" s="39"/>
+      <c r="G411" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H411" s="39">
+        <v>8</v>
+      </c>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
-      <c r="K411" s="49">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="40"/>
+      <c r="K411" s="49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412" s="40">
+        <f>EOMONTH(A410,1)</f>
+        <v>45138</v>
+      </c>
       <c r="B412" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C412" s="13"/>
-      <c r="D412" s="39">
-        <v>5</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C412" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D412" s="39"/>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G412" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H412" s="39">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
-      <c r="K412" s="49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K412" s="49">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
-        <f>EDATE(A411,1)</f>
-        <v>45108</v>
+        <f>EOMONTH(A412,1)</f>
+        <v>45169</v>
       </c>
       <c r="B413" s="20" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C413" s="13">
         <v>1.25</v>
       </c>
-      <c r="D413" s="39"/>
+      <c r="D413" s="39">
+        <v>4</v>
+      </c>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
       <c r="G413" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H413" s="39">
-        <v>1</v>
-      </c>
+      <c r="H413" s="39"/>
       <c r="I413" s="9"/>
       <c r="J413" s="11"/>
-      <c r="K413" s="49">
-        <v>45124</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="40">
-        <f t="shared" ref="A414:A428" si="3">EDATE(A413,1)</f>
-        <v>45139</v>
-      </c>
+      <c r="K413" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C414" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D414" s="39">
-        <v>4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C414" s="13"/>
+      <c r="D414" s="39"/>
       <c r="E414" s="9"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H414" s="39"/>
+      <c r="G414" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H414" s="39">
+        <v>1</v>
+      </c>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
-      <c r="K414" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="40"/>
+      <c r="K414" s="49">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" s="40">
+        <f>EOMONTH(A413,1)</f>
+        <v>45199</v>
+      </c>
       <c r="B415" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C415" s="13"/>
-      <c r="D415" s="39"/>
+        <v>258</v>
+      </c>
+      <c r="C415" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D415" s="39">
+        <v>3</v>
+      </c>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H415" s="39">
-        <v>1</v>
-      </c>
+      <c r="G415" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H415" s="39"/>
       <c r="I415" s="9"/>
       <c r="J415" s="11"/>
-      <c r="K415" s="49">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="40">
-        <f>EDATE(A414,1)</f>
-        <v>45170</v>
-      </c>
+      <c r="K415" s="20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C416" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D416" s="39">
-        <v>3</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C416" s="13"/>
+      <c r="D416" s="39"/>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H416" s="39"/>
+      <c r="G416" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H416" s="39">
+        <v>1</v>
+      </c>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
-      <c r="K416" s="20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K416" s="49">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="C417" s="13"/>
-      <c r="D417" s="39"/>
+      <c r="D417" s="39">
+        <v>0.45800000000000002</v>
+      </c>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
       <c r="G417" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H417" s="39">
-        <v>1</v>
-      </c>
+      <c r="H417" s="39"/>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
-      <c r="K417" s="49">
-        <v>45181</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="40"/>
+      <c r="K417" s="49"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" s="40">
+        <f>EOMONTH(A415,1)</f>
+        <v>45230</v>
+      </c>
       <c r="B418" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="C418" s="13"/>
-      <c r="D418" s="39">
-        <v>0.45800000000000002</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D418" s="39"/>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H418" s="39"/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H418" s="39">
+        <v>1</v>
+      </c>
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
-      <c r="K418" s="49"/>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="40">
-        <f>EDATE(A416,1)</f>
-        <v>45200</v>
-      </c>
+      <c r="K418" s="49">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C419" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D419" s="39"/>
+        <v>116</v>
+      </c>
+      <c r="C419" s="13"/>
+      <c r="D419" s="39">
+        <v>1</v>
+      </c>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H419" s="39">
-        <v>1</v>
-      </c>
+      <c r="G419" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H419" s="39"/>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="40"/>
-      <c r="B420" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C420" s="13"/>
-      <c r="D420" s="39">
-        <v>1</v>
-      </c>
+      <c r="K419" s="49"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" s="40">
+        <f>EOMONTH(A418,1)</f>
+        <v>45260</v>
+      </c>
+      <c r="B420" s="20"/>
+      <c r="C420" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D420" s="39"/>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G420" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="49"/>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K420" s="20"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
-        <f>EDATE(A419,1)</f>
-        <v>45231</v>
+        <f>EOMONTH(A420,1)</f>
+        <v>45291</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="C421" s="13">
         <v>1.25</v>
       </c>
-      <c r="D421" s="39">
-        <v>2</v>
-      </c>
+      <c r="D421" s="39"/>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
       <c r="G421" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H421" s="39"/>
+      <c r="H421" s="39">
+        <v>1</v>
+      </c>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="40">
-        <f t="shared" si="3"/>
-        <v>45261</v>
-      </c>
-      <c r="B422" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C422" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K421" s="49">
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="B422" s="20"/>
+      <c r="C422" s="13"/>
       <c r="D422" s="39"/>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H422" s="39">
-        <v>1</v>
-      </c>
+      <c r="G422" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H422" s="39"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="49">
-        <v>45287</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="B423" s="20"/>
-      <c r="C423" s="13"/>
+      <c r="K422" s="20"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" s="40">
+        <f>EOMONTH(A421,1)</f>
+        <v>45322</v>
+      </c>
+      <c r="B423" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C423" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D423" s="39"/>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H423" s="39"/>
+      <c r="G423" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H423" s="39">
+        <v>1</v>
+      </c>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
-      <c r="K423" s="20"/>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K423" s="49">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
-        <f>EDATE(A422,1)</f>
-        <v>45292</v>
+        <f>EOMONTH(A423,1)</f>
+        <v>45351</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11825,10 +11788,10 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
-        <f t="shared" si="3"/>
-        <v>45323</v>
+        <f>EOMONTH(A424,1)</f>
+        <v>45382</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11844,10 +11807,10 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
-        <f t="shared" si="3"/>
-        <v>45352</v>
+        <f>EOMONTH(A425,1)</f>
+        <v>45412</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11863,10 +11826,10 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
-        <f t="shared" si="3"/>
-        <v>45383</v>
+        <f>EOMONTH(A426,1)</f>
+        <v>45443</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11882,11 +11845,8 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="40">
-        <f t="shared" si="3"/>
-        <v>45413</v>
-      </c>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
       <c r="D428" s="39"/>
@@ -11901,7 +11861,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11917,7 +11877,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11933,7 +11893,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11949,7 +11909,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11965,7 +11925,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11981,7 +11941,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11997,7 +11957,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -12013,7 +11973,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -12029,7 +11989,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -12045,7 +12005,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -12061,7 +12021,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -12077,7 +12037,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -12093,7 +12053,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -12109,7 +12069,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -12125,7 +12085,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -12141,7 +12101,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -12157,7 +12117,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -12173,7 +12133,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -12189,7 +12149,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -12205,7 +12165,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -12221,7 +12181,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -12237,7 +12197,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -12253,7 +12213,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -12269,7 +12229,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -12285,7 +12245,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -12301,7 +12261,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -12317,7 +12277,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -12333,7 +12293,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -12349,7 +12309,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -12365,7 +12325,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -12381,7 +12341,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -12397,37 +12357,21 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="40"/>
-      <c r="B460" s="20"/>
-      <c r="C460" s="13"/>
-      <c r="D460" s="39"/>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A460" s="41"/>
+      <c r="B460" s="15"/>
+      <c r="C460" s="42"/>
+      <c r="D460" s="43"/>
       <c r="E460" s="9"/>
-      <c r="F460" s="20"/>
-      <c r="G460" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H460" s="39"/>
+      <c r="F460" s="15"/>
+      <c r="G460" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H460" s="43"/>
       <c r="I460" s="9"/>
-      <c r="J460" s="11"/>
-      <c r="K460" s="20"/>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="41"/>
-      <c r="B461" s="15"/>
-      <c r="C461" s="42"/>
-      <c r="D461" s="43"/>
-      <c r="E461" s="9"/>
-      <c r="F461" s="15"/>
-      <c r="G461" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H461" s="43"/>
-      <c r="I461" s="9"/>
-      <c r="J461" s="12"/>
-      <c r="K461" s="15"/>
+      <c r="J460" s="12"/>
+      <c r="K460" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12442,11 +12386,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12469,41 +12413,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12532,7 +12476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -12556,17 +12500,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>317</v>
       </c>
@@ -12583,17 +12527,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>58.317000000000007</v>
+        <v>70.817000000000007</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -12621,7 +12565,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12647,7 +12591,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12673,7 +12617,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12699,7 +12643,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12725,7 +12669,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12751,7 +12695,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12777,7 +12721,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12803,7 +12747,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12823,7 +12767,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12843,7 +12787,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12863,7 +12807,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12884,7 +12828,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12905,7 +12849,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12926,7 +12870,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12947,7 +12891,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12968,7 +12912,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12989,7 +12933,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13010,7 +12954,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13031,7 +12975,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13052,7 +12996,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13073,7 +13017,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13094,7 +13038,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13115,7 +13059,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13136,7 +13080,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13157,7 +13101,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13178,7 +13122,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13199,7 +13143,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13220,7 +13164,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13241,7 +13185,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13262,7 +13206,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13283,7 +13227,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13292,7 +13236,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13301,7 +13245,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13310,7 +13254,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13319,7 +13263,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13328,7 +13272,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13337,7 +13281,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13346,7 +13290,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13355,7 +13299,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13364,7 +13308,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13373,7 +13317,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13382,7 +13326,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13391,7 +13335,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13400,7 +13344,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13409,7 +13353,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13418,7 +13362,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13427,7 +13371,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13436,7 +13380,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13445,7 +13389,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13454,7 +13398,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13463,7 +13407,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13472,7 +13416,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13481,7 +13425,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13490,7 +13434,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13499,7 +13443,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13508,7 +13452,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13517,7 +13461,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13526,7 +13470,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13535,7 +13479,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13544,7 +13488,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CCT/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/CCT/VELUZ, DORMILUNA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E83F6-D15E-4202-B309-455AA6C7C833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="337">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1050,7 +1049,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1731,7 +1730,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1748,26 +1747,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K460" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K460" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K460" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K460"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2074,34 +2073,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3648" topLeftCell="A386" activePane="bottomLeft"/>
+      <pane ySplit="3645" topLeftCell="A410" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K389" sqref="K389"/>
+      <selection pane="bottomLeft" activeCell="E428" sqref="E428"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2122,7 +2121,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2142,7 +2141,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2164,7 +2163,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2172,7 +2171,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2185,7 +2184,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2202,7 +2201,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2256,12 +2255,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>84</v>
       </c>
@@ -2283,7 +2282,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>38504</v>
       </c>
@@ -2303,7 +2302,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f>EOMONTH(A11,1)</f>
         <v>38564</v>
@@ -2324,7 +2323,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EOMONTH(A12,1)</f>
         <v>38595</v>
@@ -2345,7 +2344,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f>EOMONTH(A13,1)</f>
         <v>38625</v>
@@ -2372,7 +2371,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -2390,7 +2389,7 @@
         <v>38573</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f>EOMONTH(A14,1)</f>
         <v>38656</v>
@@ -2417,7 +2416,7 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f>EOMONTH(A16,1)</f>
         <v>38686</v>
@@ -2438,7 +2437,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f>EOMONTH(A17,1)</f>
         <v>38717</v>
@@ -2465,7 +2464,7 @@
         <v>38364</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>85</v>
       </c>
@@ -2487,7 +2486,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EOMONTH(A18,1)</f>
         <v>38748</v>
@@ -2508,7 +2507,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f>EOMONTH(A20,1)</f>
         <v>38776</v>
@@ -2529,7 +2528,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f>EOMONTH(A21,1)</f>
         <v>38807</v>
@@ -2556,7 +2555,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>96</v>
@@ -2578,7 +2577,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -2600,7 +2599,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f>EOMONTH(A22,1)</f>
         <v>38837</v>
@@ -2627,9 +2626,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
-        <f>EOMONTH(A25,1)</f>
+        <f t="shared" ref="A26:A33" si="0">EOMONTH(A25,1)</f>
         <v>38868</v>
       </c>
       <c r="B26" s="20"/>
@@ -2648,9 +2647,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
-        <f>EOMONTH(A26,1)</f>
+        <f t="shared" si="0"/>
         <v>38898</v>
       </c>
       <c r="B27" s="20"/>
@@ -2669,9 +2668,9 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
-        <f>EOMONTH(A27,1)</f>
+        <f t="shared" si="0"/>
         <v>38929</v>
       </c>
       <c r="B28" s="20"/>
@@ -2690,9 +2689,9 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
-        <f>EOMONTH(A28,1)</f>
+        <f t="shared" si="0"/>
         <v>38960</v>
       </c>
       <c r="B29" s="20"/>
@@ -2711,9 +2710,9 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
-        <f>EOMONTH(A29,1)</f>
+        <f t="shared" si="0"/>
         <v>38990</v>
       </c>
       <c r="B30" s="20"/>
@@ -2732,9 +2731,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
-        <f>EOMONTH(A30,1)</f>
+        <f t="shared" si="0"/>
         <v>39021</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -2759,9 +2758,9 @@
         <v>38786</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
-        <f>EOMONTH(A31,1)</f>
+        <f t="shared" si="0"/>
         <v>39051</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -2786,9 +2785,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
-        <f>EOMONTH(A32,1)</f>
+        <f t="shared" si="0"/>
         <v>39082</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -2813,7 +2812,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -2833,7 +2832,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>100</v>
@@ -2853,7 +2852,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>87</v>
       </c>
@@ -2875,7 +2874,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EOMONTH(A33,1)</f>
         <v>39113</v>
@@ -2902,7 +2901,7 @@
         <v>39114</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -2924,7 +2923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -2946,7 +2945,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -2968,7 +2967,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -2990,7 +2989,7 @@
         <v>39327</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f>EOMONTH(A37,1)</f>
         <v>39141</v>
@@ -3011,7 +3010,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f>EOMONTH(A42,1)</f>
         <v>39172</v>
@@ -3038,7 +3037,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -3060,7 +3059,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f>EOMONTH(A43,1)</f>
         <v>39202</v>
@@ -3087,7 +3086,7 @@
         <v>39268</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f>EOMONTH(A45,1)</f>
         <v>39233</v>
@@ -3114,7 +3113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f>EOMONTH(A46,1)</f>
         <v>39263</v>
@@ -3135,7 +3134,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f>EOMONTH(A47,1)</f>
         <v>39294</v>
@@ -3156,7 +3155,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f>EOMONTH(A48,1)</f>
         <v>39325</v>
@@ -3183,7 +3182,7 @@
         <v>39363</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f>EOMONTH(A49,1)</f>
         <v>39355</v>
@@ -3210,7 +3209,7 @@
         <v>39150</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>45</v>
@@ -3232,7 +3231,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>45</v>
@@ -3254,7 +3253,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f>EOMONTH(A50,1)</f>
         <v>39386</v>
@@ -3281,7 +3280,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f>EOMONTH(A53,1)</f>
         <v>39416</v>
@@ -3308,7 +3307,7 @@
         <v>39213</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>258</v>
@@ -3330,7 +3329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -3352,7 +3351,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f>EOMONTH(A54,1)</f>
         <v>39447</v>
@@ -3373,7 +3372,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>95</v>
       </c>
@@ -3395,7 +3394,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EOMONTH(A57,1)</f>
         <v>39478</v>
@@ -3422,7 +3421,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3444,7 +3443,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>115</v>
@@ -3464,7 +3463,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f>EOMONTH(A59,1)</f>
         <v>39507</v>
@@ -3491,7 +3490,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>45</v>
@@ -3513,7 +3512,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f>EOMONTH(A62,1)</f>
         <v>39538</v>
@@ -3540,7 +3539,7 @@
         <v>39632</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>45</v>
@@ -3562,7 +3561,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>45</v>
@@ -3584,7 +3583,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>116</v>
@@ -3604,7 +3603,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f>EOMONTH(A64,1)</f>
         <v>39568</v>
@@ -3631,7 +3630,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>117</v>
@@ -3651,7 +3650,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f>EOMONTH(A68,1)</f>
         <v>39599</v>
@@ -3678,7 +3677,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -3700,7 +3699,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>119</v>
@@ -3720,7 +3719,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f>EOMONTH(A70,1)</f>
         <v>39629</v>
@@ -3745,7 +3744,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>66</v>
@@ -3767,7 +3766,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>120</v>
@@ -3787,7 +3786,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f>EOMONTH(A73,1)</f>
         <v>39660</v>
@@ -3808,7 +3807,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f>EOMONTH(A76,1)</f>
         <v>39691</v>
@@ -3835,7 +3834,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -3857,7 +3856,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>116</v>
@@ -3877,7 +3876,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f>EOMONTH(A77,1)</f>
         <v>39721</v>
@@ -3904,7 +3903,7 @@
         <v>39761</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>130</v>
@@ -3924,7 +3923,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f>EOMONTH(A80,1)</f>
         <v>39752</v>
@@ -3951,7 +3950,7 @@
         <v>39609</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>45</v>
@@ -3973,7 +3972,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -3995,7 +3994,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f>EOMONTH(A82,1)</f>
         <v>39782</v>
@@ -4022,7 +4021,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>45</v>
@@ -4044,7 +4043,7 @@
         <v>39640</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f>EOMONTH(A85,1)</f>
         <v>39813</v>
@@ -4071,7 +4070,7 @@
         <v>39550</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>45</v>
@@ -4093,7 +4092,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>131</v>
@@ -4113,7 +4112,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>94</v>
       </c>
@@ -4135,7 +4134,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f>EOMONTH(A87,1)</f>
         <v>39844</v>
@@ -4156,9 +4155,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
-        <f>EOMONTH(A91,1)</f>
+        <f t="shared" ref="A92:A101" si="1">EOMONTH(A91,1)</f>
         <v>39872</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -4181,9 +4180,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
-        <f>EOMONTH(A92,1)</f>
+        <f t="shared" si="1"/>
         <v>39903</v>
       </c>
       <c r="B93" s="20" t="s">
@@ -4208,9 +4207,9 @@
         <v>39936</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
-        <f>EOMONTH(A93,1)</f>
+        <f t="shared" si="1"/>
         <v>39933</v>
       </c>
       <c r="B94" s="20" t="s">
@@ -4235,9 +4234,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
-        <f>EOMONTH(A94,1)</f>
+        <f t="shared" si="1"/>
         <v>39964</v>
       </c>
       <c r="B95" s="20" t="s">
@@ -4260,9 +4259,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
-        <f>EOMONTH(A95,1)</f>
+        <f t="shared" si="1"/>
         <v>39994</v>
       </c>
       <c r="B96" s="20"/>
@@ -4281,9 +4280,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
-        <f>EOMONTH(A96,1)</f>
+        <f t="shared" si="1"/>
         <v>40025</v>
       </c>
       <c r="B97" s="20"/>
@@ -4302,9 +4301,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
-        <f>EOMONTH(A97,1)</f>
+        <f t="shared" si="1"/>
         <v>40056</v>
       </c>
       <c r="B98" s="20" t="s">
@@ -4329,9 +4328,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
-        <f>EOMONTH(A98,1)</f>
+        <f t="shared" si="1"/>
         <v>40086</v>
       </c>
       <c r="B99" s="20"/>
@@ -4350,9 +4349,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
-        <f>EOMONTH(A99,1)</f>
+        <f t="shared" si="1"/>
         <v>40117</v>
       </c>
       <c r="B100" s="20"/>
@@ -4371,9 +4370,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
-        <f>EOMONTH(A100,1)</f>
+        <f t="shared" si="1"/>
         <v>40147</v>
       </c>
       <c r="B101" s="20" t="s">
@@ -4398,7 +4397,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>109</v>
@@ -4420,7 +4419,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f>EOMONTH(A101,1)</f>
         <v>40178</v>
@@ -4445,7 +4444,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>93</v>
       </c>
@@ -4467,7 +4466,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f>EOMONTH(A103,1)</f>
         <v>40209</v>
@@ -4488,9 +4487,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
-        <f>EOMONTH(A105,1)</f>
+        <f t="shared" ref="A106:A113" si="2">EOMONTH(A105,1)</f>
         <v>40237</v>
       </c>
       <c r="B106" s="20"/>
@@ -4511,9 +4510,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
-        <f>EOMONTH(A106,1)</f>
+        <f t="shared" si="2"/>
         <v>40268</v>
       </c>
       <c r="B107" s="20"/>
@@ -4532,9 +4531,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
-        <f>EOMONTH(A107,1)</f>
+        <f t="shared" si="2"/>
         <v>40298</v>
       </c>
       <c r="B108" s="20" t="s">
@@ -4559,9 +4558,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
-        <f>EOMONTH(A108,1)</f>
+        <f t="shared" si="2"/>
         <v>40329</v>
       </c>
       <c r="B109" s="20" t="s">
@@ -4584,9 +4583,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
-        <f>EOMONTH(A109,1)</f>
+        <f t="shared" si="2"/>
         <v>40359</v>
       </c>
       <c r="B110" s="20"/>
@@ -4605,9 +4604,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
-        <f>EOMONTH(A110,1)</f>
+        <f t="shared" si="2"/>
         <v>40390</v>
       </c>
       <c r="B111" s="20" t="s">
@@ -4630,9 +4629,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
-        <f>EOMONTH(A111,1)</f>
+        <f t="shared" si="2"/>
         <v>40421</v>
       </c>
       <c r="B112" s="20" t="s">
@@ -4655,9 +4654,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
-        <f>EOMONTH(A112,1)</f>
+        <f t="shared" si="2"/>
         <v>40451</v>
       </c>
       <c r="B113" s="20" t="s">
@@ -4682,7 +4681,7 @@
         <v>40246</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>149</v>
@@ -4702,7 +4701,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f>EOMONTH(A113,1)</f>
         <v>40482</v>
@@ -4729,7 +4728,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>150</v>
@@ -4749,7 +4748,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f>EOMONTH(A115,1)</f>
         <v>40512</v>
@@ -4774,7 +4773,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f>EOMONTH(A117,1)</f>
         <v>40543</v>
@@ -4801,7 +4800,7 @@
         <v>40433</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>92</v>
       </c>
@@ -4823,7 +4822,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f>EOMONTH(A118,1)</f>
         <v>40574</v>
@@ -4848,7 +4847,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f>EOMONTH(A120,1)</f>
         <v>40602</v>
@@ -4873,7 +4872,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f>EOMONTH(A121,1)</f>
         <v>40633</v>
@@ -4900,7 +4899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f>EOMONTH(A122,1)</f>
         <v>40663</v>
@@ -4925,7 +4924,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>53</v>
@@ -4945,7 +4944,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>53</v>
@@ -4965,7 +4964,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>157</v>
@@ -4987,7 +4986,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5005,7 +5004,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EOMONTH(A123,1)</f>
         <v>40694</v>
@@ -5026,7 +5025,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f>EOMONTH(A128,1)</f>
         <v>40724</v>
@@ -5053,7 +5052,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>167</v>
@@ -5073,7 +5072,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f>EOMONTH(A129,1)</f>
         <v>40755</v>
@@ -5100,7 +5099,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>169</v>
@@ -5119,7 +5118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>170</v>
@@ -5136,7 +5135,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f>EOMONTH(A131,1)</f>
         <v>40786</v>
@@ -5165,7 +5164,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f>EOMONTH(A134,1)</f>
         <v>40816</v>
@@ -5186,7 +5185,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f>EOMONTH(A135,1)</f>
         <v>40847</v>
@@ -5207,7 +5206,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f>EOMONTH(A136,1)</f>
         <v>40877</v>
@@ -5228,7 +5227,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f>EOMONTH(A137,1)</f>
         <v>40908</v>
@@ -5257,7 +5256,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>165</v>
@@ -5277,7 +5276,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>166</v>
@@ -5305,7 +5304,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
         <v>91</v>
       </c>
@@ -5327,7 +5326,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EOMONTH(A138,1)</f>
         <v>40939</v>
@@ -5350,7 +5349,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f>EOMONTH(A142,1)</f>
         <v>40968</v>
@@ -5371,7 +5370,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f>EOMONTH(A143,1)</f>
         <v>40999</v>
@@ -5398,7 +5397,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f>EOMONTH(A144,1)</f>
         <v>41029</v>
@@ -5423,7 +5422,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>45</v>
@@ -5445,7 +5444,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f>EOMONTH(A145,1)</f>
         <v>41060</v>
@@ -5472,7 +5471,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>49</v>
@@ -5496,7 +5495,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f>EOMONTH(A147,1)</f>
         <v>41090</v>
@@ -5525,7 +5524,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f>EOMONTH(A149,1)</f>
         <v>41121</v>
@@ -5554,7 +5553,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5574,7 +5573,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f>EOMONTH(A150,1)</f>
         <v>41152</v>
@@ -5603,7 +5602,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>50</v>
@@ -5627,7 +5626,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <f>EOMONTH(A152,1)</f>
         <v>41182</v>
@@ -5654,7 +5653,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>47</v>
@@ -5676,7 +5675,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5698,7 +5697,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f>EOMONTH(A154,1)</f>
         <v>41213</v>
@@ -5727,7 +5726,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>50</v>
@@ -5751,7 +5750,7 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EOMONTH(A157,1)</f>
         <v>41243</v>
@@ -5776,7 +5775,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>45</v>
@@ -5796,7 +5795,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f>EOMONTH(A159,1)</f>
         <v>41274</v>
@@ -5823,7 +5822,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>50</v>
@@ -5847,7 +5846,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>53</v>
@@ -5867,7 +5866,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="48" t="s">
         <v>90</v>
       </c>
@@ -5889,7 +5888,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f>EOMONTH(A161,1)</f>
         <v>41305</v>
@@ -5914,7 +5913,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>53</v>
@@ -5934,7 +5933,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>169</v>
@@ -5956,7 +5955,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>194</v>
@@ -5976,7 +5975,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f>EOMONTH(A165,1)</f>
         <v>41333</v>
@@ -6007,7 +6006,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>195</v>
@@ -6029,7 +6028,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f>EOMONTH(A169,1)</f>
         <v>41364</v>
@@ -6056,7 +6055,7 @@
         <v>41458</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>196</v>
@@ -6076,7 +6075,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EOMONTH(A171,1)</f>
         <v>41394</v>
@@ -6105,7 +6104,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f>EOMONTH(A173,1)</f>
         <v>41425</v>
@@ -6126,7 +6125,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f>EOMONTH(A174,1)</f>
         <v>41455</v>
@@ -6153,7 +6152,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>50</v>
@@ -6177,7 +6176,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>50</v>
@@ -6199,7 +6198,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>205</v>
@@ -6219,7 +6218,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f>EOMONTH(A175,1)</f>
         <v>41486</v>
@@ -6248,7 +6247,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>206</v>
@@ -6270,7 +6269,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>207</v>
@@ -6292,7 +6291,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>208</v>
@@ -6314,7 +6313,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f>EOMONTH(A179,1)</f>
         <v>41517</v>
@@ -6341,7 +6340,7 @@
         <v>41433</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>47</v>
@@ -6363,7 +6362,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>47</v>
@@ -6385,7 +6384,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>209</v>
@@ -6405,7 +6404,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f>EOMONTH(A183,1)</f>
         <v>41547</v>
@@ -6432,7 +6431,7 @@
         <v>41617</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>50</v>
@@ -6456,7 +6455,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>210</v>
@@ -6476,7 +6475,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <f>EOMONTH(A187,1)</f>
         <v>41578</v>
@@ -6505,7 +6504,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>211</v>
@@ -6525,7 +6524,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f>EOMONTH(A190,1)</f>
         <v>41608</v>
@@ -6550,7 +6549,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <f>EOMONTH(A192,1)</f>
         <v>41639</v>
@@ -6577,7 +6576,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>213</v>
@@ -6597,7 +6596,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="48" t="s">
         <v>89</v>
       </c>
@@ -6619,7 +6618,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EOMONTH(A193,1)</f>
         <v>41670</v>
@@ -6648,7 +6647,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -6670,7 +6669,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>225</v>
@@ -6690,7 +6689,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EOMONTH(A196,1)</f>
         <v>41698</v>
@@ -6717,7 +6716,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>139</v>
@@ -6737,7 +6736,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f>EOMONTH(A199,1)</f>
         <v>41729</v>
@@ -6758,7 +6757,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f>EOMONTH(A201,1)</f>
         <v>41759</v>
@@ -6787,7 +6786,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>50</v>
@@ -6809,7 +6808,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>226</v>
@@ -6829,7 +6828,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f>EOMONTH(A202,1)</f>
         <v>41790</v>
@@ -6856,7 +6855,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>53</v>
@@ -6876,7 +6875,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>49</v>
@@ -6902,7 +6901,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>53</v>
@@ -6922,7 +6921,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>227</v>
@@ -6942,7 +6941,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <f>EOMONTH(A205,1)</f>
         <v>41820</v>
@@ -6969,7 +6968,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>169</v>
@@ -6991,7 +6990,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>47</v>
@@ -7013,7 +7012,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f>EOMONTH(A210,1)</f>
         <v>41851</v>
@@ -7040,7 +7039,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>47</v>
@@ -7062,7 +7061,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f>EOMONTH(A213,1)</f>
         <v>41882</v>
@@ -7087,7 +7086,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>169</v>
@@ -7111,7 +7110,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>169</v>
@@ -7133,7 +7132,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>47</v>
@@ -7155,7 +7154,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <f>EOMONTH(A215,1)</f>
         <v>41912</v>
@@ -7180,7 +7179,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f>EOMONTH(A219,1)</f>
         <v>41943</v>
@@ -7205,7 +7204,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f>EOMONTH(A220,1)</f>
         <v>41973</v>
@@ -7232,7 +7231,7 @@
         <v>41709</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>247</v>
@@ -7252,7 +7251,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f>EOMONTH(A221,1)</f>
         <v>42004</v>
@@ -7277,7 +7276,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>248</v>
@@ -7297,7 +7296,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>88</v>
       </c>
@@ -7317,7 +7316,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f>EOMONTH(A223,1)</f>
         <v>42035</v>
@@ -7342,7 +7341,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>251</v>
@@ -7362,7 +7361,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f>EOMONTH(A226,1)</f>
         <v>42063</v>
@@ -7393,7 +7392,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>252</v>
@@ -7413,7 +7412,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <f>EOMONTH(A228,1)</f>
         <v>42094</v>
@@ -7440,7 +7439,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>253</v>
@@ -7462,7 +7461,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>254</v>
@@ -7484,7 +7483,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>255</v>
@@ -7506,7 +7505,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f>EOMONTH(A230,1)</f>
         <v>42124</v>
@@ -7533,7 +7532,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f>EOMONTH(A234,1)</f>
         <v>42155</v>
@@ -7560,7 +7559,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f>EOMONTH(A235,1)</f>
         <v>42185</v>
@@ -7587,7 +7586,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>258</v>
@@ -7609,7 +7608,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>254</v>
@@ -7631,7 +7630,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>268</v>
@@ -7655,7 +7654,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f>EOMONTH(A236,1)</f>
         <v>42216</v>
@@ -7684,7 +7683,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f>EOMONTH(A240,1)</f>
         <v>42247</v>
@@ -7709,7 +7708,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f>EOMONTH(A241,1)</f>
         <v>42277</v>
@@ -7734,7 +7733,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f>EOMONTH(A242,1)</f>
         <v>42308</v>
@@ -7761,7 +7760,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>272</v>
@@ -7781,7 +7780,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f>EOMONTH(A243,1)</f>
         <v>42338</v>
@@ -7806,7 +7805,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f>EOMONTH(A245,1)</f>
         <v>42369</v>
@@ -7833,7 +7832,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>206</v>
@@ -7855,7 +7854,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -7877,7 +7876,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>274</v>
@@ -7897,7 +7896,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="48" t="s">
         <v>250</v>
       </c>
@@ -7919,7 +7918,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EOMONTH(A246,1)</f>
         <v>42400</v>
@@ -7942,7 +7941,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>47</v>
@@ -7964,7 +7963,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>281</v>
@@ -7984,7 +7983,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EOMONTH(A251,1)</f>
         <v>42429</v>
@@ -8009,7 +8008,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f>EOMONTH(A254,1)</f>
         <v>42460</v>
@@ -8036,7 +8035,7 @@
         <v>42554</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>283</v>
@@ -8056,7 +8055,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="49"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f>EOMONTH(A255,1)</f>
         <v>42490</v>
@@ -8083,7 +8082,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>284</v>
@@ -8103,7 +8102,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EOMONTH(A257,1)</f>
         <v>42521</v>
@@ -8130,7 +8129,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>53</v>
@@ -8150,7 +8149,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>285</v>
@@ -8170,7 +8169,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f>EOMONTH(A259,1)</f>
         <v>42551</v>
@@ -8195,7 +8194,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>47</v>
@@ -8217,7 +8216,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>286</v>
@@ -8237,7 +8236,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f>EOMONTH(A262,1)</f>
         <v>42582</v>
@@ -8264,7 +8263,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f>EOMONTH(A265,1)</f>
         <v>42613</v>
@@ -8291,7 +8290,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>287</v>
@@ -8311,7 +8310,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f>EOMONTH(A266,1)</f>
         <v>42643</v>
@@ -8338,7 +8337,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>45</v>
@@ -8360,7 +8359,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>139</v>
@@ -8380,7 +8379,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f>EOMONTH(A268,1)</f>
         <v>42674</v>
@@ -8405,7 +8404,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <f>EOMONTH(A271,1)</f>
         <v>42704</v>
@@ -8430,7 +8429,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EOMONTH(A272,1)</f>
         <v>42735</v>
@@ -8451,7 +8450,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="48" t="s">
         <v>249</v>
       </c>
@@ -8475,7 +8474,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f>EOMONTH(A273,1)</f>
         <v>42766</v>
@@ -8502,7 +8501,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f>EOMONTH(A275,1)</f>
         <v>42794</v>
@@ -8527,7 +8526,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>301</v>
@@ -8549,7 +8548,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>258</v>
@@ -8571,7 +8570,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <f>EOMONTH(A276,1)</f>
         <v>42825</v>
@@ -8592,7 +8591,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EOMONTH(A279,1)</f>
         <v>42855</v>
@@ -8619,7 +8618,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>45</v>
@@ -8641,7 +8640,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f>EOMONTH(A280,1)</f>
         <v>42886</v>
@@ -8662,7 +8661,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f>EOMONTH(A282,1)</f>
         <v>42916</v>
@@ -8689,7 +8688,7 @@
         <v>42953</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -8711,7 +8710,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <f>EOMONTH(A283,1)</f>
         <v>42947</v>
@@ -8738,7 +8737,7 @@
         <v>43046</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f>EOMONTH(A285,1)</f>
         <v>42978</v>
@@ -8765,7 +8764,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -8781,7 +8780,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>47</v>
@@ -8803,7 +8802,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <f>EOMONTH(A286,1)</f>
         <v>43008</v>
@@ -8830,7 +8829,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>164</v>
@@ -8852,7 +8851,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f>EOMONTH(A289,1)</f>
         <v>43039</v>
@@ -8879,7 +8878,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>47</v>
@@ -8901,7 +8900,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f>EOMONTH(A291,1)</f>
         <v>43069</v>
@@ -8922,7 +8921,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f>EOMONTH(A293,1)</f>
         <v>43100</v>
@@ -8949,7 +8948,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>50</v>
@@ -8973,7 +8972,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="48" t="s">
         <v>44</v>
       </c>
@@ -8991,7 +8990,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43101</v>
       </c>
@@ -9011,7 +9010,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43132</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -9056,7 +9055,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>46</v>
@@ -9077,7 +9076,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>47</v>
@@ -9096,7 +9095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>43160</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>49</v>
@@ -9145,7 +9144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43191</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>46</v>
@@ -9194,7 +9193,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>50</v>
@@ -9215,7 +9214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>53</v>
@@ -9232,7 +9231,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>53</v>
@@ -9249,7 +9248,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>53</v>
@@ -9266,7 +9265,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>43221</v>
       </c>
@@ -9286,7 +9285,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43252</v>
       </c>
@@ -9306,7 +9305,7 @@
       <c r="J311" s="12"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43282</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>47</v>
@@ -9351,7 +9350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>45</v>
@@ -9370,7 +9369,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>45</v>
@@ -9389,7 +9388,7 @@
         <v>43320</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>46</v>
@@ -9408,7 +9407,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43313</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>43335</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43344</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -9479,7 +9478,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43374</v>
       </c>
@@ -9499,7 +9498,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43405</v>
       </c>
@@ -9519,7 +9518,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43435</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="48" t="s">
         <v>57</v>
       </c>
@@ -9563,7 +9562,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43466</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>45</v>
@@ -9606,7 +9605,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43497</v>
       </c>
@@ -9632,7 +9631,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43525</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>45</v>
@@ -9677,7 +9676,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43556</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43586</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43617</v>
       </c>
@@ -9753,7 +9752,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>45</v>
@@ -9772,7 +9771,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43647</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>58</v>
@@ -9819,7 +9818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>50</v>
@@ -9838,7 +9837,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>50</v>
@@ -9857,7 +9856,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43678</v>
       </c>
@@ -9877,7 +9876,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43709</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>46</v>
@@ -9924,7 +9923,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>60</v>
@@ -9943,7 +9942,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>60</v>
@@ -9962,7 +9961,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43739</v>
       </c>
@@ -9982,7 +9981,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43770</v>
       </c>
@@ -10008,7 +10007,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>46</v>
@@ -10029,7 +10028,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43800</v>
       </c>
@@ -10055,7 +10054,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>46</v>
@@ -10079,7 +10078,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -10097,7 +10096,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="48" t="s">
         <v>63</v>
       </c>
@@ -10115,7 +10114,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43831</v>
       </c>
@@ -10141,7 +10140,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>46</v>
@@ -10160,7 +10159,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>64</v>
@@ -10177,7 +10176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>45</v>
@@ -10196,7 +10195,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43862</v>
       </c>
@@ -10216,7 +10215,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43891</v>
       </c>
@@ -10242,7 +10241,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43922</v>
       </c>
@@ -10262,7 +10261,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43952</v>
       </c>
@@ -10282,7 +10281,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>43983</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44013</v>
       </c>
@@ -10326,7 +10325,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44044</v>
       </c>
@@ -10346,7 +10345,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44075</v>
       </c>
@@ -10366,7 +10365,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44105</v>
       </c>
@@ -10386,7 +10385,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44136</v>
       </c>
@@ -10406,7 +10405,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44166</v>
       </c>
@@ -10432,7 +10431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="48" t="s">
         <v>69</v>
       </c>
@@ -10450,7 +10449,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44197</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44228</v>
       </c>
@@ -10502,7 +10501,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44256</v>
       </c>
@@ -10522,7 +10521,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44287</v>
       </c>
@@ -10542,7 +10541,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44317</v>
       </c>
@@ -10562,7 +10561,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44348</v>
       </c>
@@ -10582,7 +10581,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44378</v>
       </c>
@@ -10602,7 +10601,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44409</v>
       </c>
@@ -10622,7 +10621,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44440</v>
       </c>
@@ -10646,7 +10645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44470</v>
       </c>
@@ -10666,7 +10665,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44501</v>
       </c>
@@ -10686,7 +10685,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44531</v>
       </c>
@@ -10712,7 +10711,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="48" t="s">
         <v>71</v>
       </c>
@@ -10730,7 +10729,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44562</v>
       </c>
@@ -10750,7 +10749,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44593</v>
       </c>
@@ -10770,7 +10769,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44621</v>
       </c>
@@ -10796,7 +10795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44652</v>
       </c>
@@ -10816,7 +10815,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44682</v>
       </c>
@@ -10840,7 +10839,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>47</v>
@@ -10862,7 +10861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>66</v>
@@ -10882,7 +10881,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>53</v>
@@ -10902,7 +10901,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>331</v>
@@ -10922,7 +10921,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="49"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44713</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>330</v>
@@ -10968,7 +10967,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44743</v>
       </c>
@@ -10988,7 +10987,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>328</v>
@@ -11008,7 +11007,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44774</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>326</v>
@@ -11052,7 +11051,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>44805</v>
       </c>
@@ -11072,7 +11071,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>325</v>
@@ -11092,7 +11091,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>44835</v>
       </c>
@@ -11116,7 +11115,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>44866</v>
       </c>
@@ -11140,7 +11139,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>44896</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>323</v>
@@ -11186,7 +11185,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="49"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="48" t="s">
         <v>78</v>
       </c>
@@ -11204,7 +11203,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>44927</v>
       </c>
@@ -11230,7 +11229,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>44958</v>
       </c>
@@ -11256,7 +11255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>328</v>
@@ -11276,7 +11275,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f>EOMONTH(A401,1)</f>
         <v>45016</v>
@@ -11303,7 +11302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>335</v>
@@ -11323,7 +11322,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EOMONTH(A403,1)</f>
         <v>45046</v>
@@ -11350,7 +11349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11366,7 +11365,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="49"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EOMONTH(A405,1)</f>
         <v>45077</v>
@@ -11393,7 +11392,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>53</v>
@@ -11413,7 +11412,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>45</v>
@@ -11435,7 +11434,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EOMONTH(A407,1)</f>
         <v>45107</v>
@@ -11460,7 +11459,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>321</v>
@@ -11484,7 +11483,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EOMONTH(A410,1)</f>
         <v>45138</v>
@@ -11511,7 +11510,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f>EOMONTH(A412,1)</f>
         <v>45169</v>
@@ -11538,7 +11537,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>45</v>
@@ -11560,7 +11559,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f>EOMONTH(A413,1)</f>
         <v>45199</v>
@@ -11587,7 +11586,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>45</v>
@@ -11609,7 +11608,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>334</v>
@@ -11629,7 +11628,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="49"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f>EOMONTH(A415,1)</f>
         <v>45230</v>
@@ -11656,7 +11655,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>116</v>
@@ -11676,7 +11675,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="49"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f>EOMONTH(A418,1)</f>
         <v>45260</v>
@@ -11697,7 +11696,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EOMONTH(A420,1)</f>
         <v>45291</v>
@@ -11724,7 +11723,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="48" t="s">
         <v>333</v>
       </c>
@@ -11742,7 +11741,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EOMONTH(A421,1)</f>
         <v>45322</v>
@@ -11769,12 +11768,14 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <f>EOMONTH(A423,1)</f>
         <v>45351</v>
       </c>
-      <c r="B424" s="20"/>
+      <c r="B424" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C424" s="13"/>
       <c r="D424" s="39"/>
       <c r="E424" s="9"/>
@@ -11783,12 +11784,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H424" s="39"/>
+      <c r="H424" s="39">
+        <v>1</v>
+      </c>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
-      <c r="K424" s="20"/>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K424" s="49">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EOMONTH(A424,1)</f>
         <v>45382</v>
@@ -11807,7 +11812,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f>EOMONTH(A425,1)</f>
         <v>45412</v>
@@ -11826,7 +11831,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f>EOMONTH(A426,1)</f>
         <v>45443</v>
@@ -11845,7 +11850,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11861,7 +11866,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11877,7 +11882,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11893,7 +11898,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11909,7 +11914,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11925,7 +11930,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11941,7 +11946,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11957,7 +11962,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11973,7 +11978,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11989,7 +11994,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -12005,7 +12010,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -12021,7 +12026,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -12037,7 +12042,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -12053,7 +12058,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -12069,7 +12074,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -12085,7 +12090,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -12101,7 +12106,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -12117,7 +12122,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -12133,7 +12138,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -12149,7 +12154,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -12165,7 +12170,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -12181,7 +12186,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -12197,7 +12202,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -12213,7 +12218,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -12229,7 +12234,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -12245,7 +12250,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -12261,7 +12266,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -12277,7 +12282,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -12293,7 +12298,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -12309,7 +12314,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -12325,7 +12330,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -12341,7 +12346,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -12357,7 +12362,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="41"/>
       <c r="B460" s="15"/>
       <c r="C460" s="42"/>
@@ -12387,10 +12392,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12413,28 +12418,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -12447,7 +12452,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12476,7 +12481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -12500,17 +12505,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>317</v>
       </c>
@@ -12534,10 +12539,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>70.817000000000007</v>
+        <v>69.817000000000007</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -12565,7 +12570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12591,7 +12596,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12617,7 +12622,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12643,7 +12648,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12669,7 +12674,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12695,7 +12700,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12721,7 +12726,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12747,7 +12752,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12767,7 +12772,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12787,7 +12792,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12807,7 +12812,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12828,7 +12833,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12849,7 +12854,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12870,7 +12875,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12891,7 +12896,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12912,7 +12917,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12933,7 +12938,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12954,7 +12959,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12975,7 +12980,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12996,7 +13001,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13017,7 +13022,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13038,7 +13043,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13059,7 +13064,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13080,7 +13085,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13101,7 +13106,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13122,7 +13127,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13143,7 +13148,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13164,7 +13169,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13185,7 +13190,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13206,7 +13211,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13227,7 +13232,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13236,7 +13241,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13245,7 +13250,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13254,7 +13259,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13263,7 +13268,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13272,7 +13277,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13281,7 +13286,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13290,7 +13295,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13299,7 +13304,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13308,7 +13313,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13317,7 +13322,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13326,7 +13331,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13335,7 +13340,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13344,7 +13349,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13353,7 +13358,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13362,7 +13367,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13371,7 +13376,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13380,7 +13385,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13389,7 +13394,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13398,7 +13403,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13407,7 +13412,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13416,7 +13421,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13425,7 +13430,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13434,7 +13439,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13443,7 +13448,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13452,7 +13457,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13461,7 +13466,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13470,7 +13475,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13479,7 +13484,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13488,7 +13493,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
